--- a/Udemy Free (en) - (highest-rated).xlsx
+++ b/Udemy Free (en) - (highest-rated).xlsx
@@ -55,84 +55,87 @@
     <t>https://www.udemy.com/course/5-present-breaths/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/deskyoga/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/train-your-dog-to-walk-on-a-treadmill/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/ccna-quiz-questions-exam-prep-pass-ccna-exam/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/make-wordpress-hosting-easy-with-plesk-on-digitalocean/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/wordpress-hosting-with-plesk-on-lightsail/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/foundation-for-digitally-sketching-a-face/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/pi-101-piano/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/make-wordpress-hosting-easy-with-plesk-on-digitalocean/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/deskyoga/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/digital-painting-series-ep0-dragon-bust/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/foundation-for-digitally-sketching-a-face/</t>
+    <t>https://www.udemy.com/course/how-to-breakdance-from-beginner-to-pro-in-just-7-days/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/aws-vpc-transit-gateway/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/how-to-breakdance-from-beginner-to-pro-in-just-7-days/</t>
+    <t>https://www.udemy.com/course/total-beginner-guitar-lessons/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/arbasketball/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/how-to-prevent-identity-theft-online-with-strong-passwords/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/unity-2017-create-a-top-down-camera-with-editor-tools/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/spanish-vocab/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/emmet-start-coding-html-and-css-fast-and-easy/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/arbasketball/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/how-to-prevent-identity-theft-online-with-strong-passwords/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/total-beginner-guitar-lessons/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/wordpress-hosting-with-plesk-on-lightsail/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/spanish-vocab/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/unity-2017-create-a-top-down-camera-with-editor-tools/</t>
+    <t>https://www.udemy.com/course/how-to-play-piano-course/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/blender-crash-course/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/how-to-play-piano-course/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/mental-health-for-coping-with-stress-anxiety-covid-19/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/free-aromatherapy-using-essential-oils-in-your-daily-life/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/learn-to-create-html-css-web-templates-create-web-pages/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/yogaforbeginners/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/art-fundamentals-in-one-hour/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/photography-for-beginners/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/learn-to-create-html-css-web-templates-create-web-pages/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/free-aromatherapy-using-essential-oils-in-your-daily-life/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/mcu_msp430/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/art-fundamentals-in-one-hour/</t>
+    <t>https://www.udemy.com/course/free-photography-course-for-beginners/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/productivity-for-creative-people-master-your-day/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/free-photography-course-for-beginners/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/breath-secrets-7-day-challenge/</t>
   </si>
   <si>
@@ -142,291 +145,291 @@
     <t>https://www.udemy.com/course/how-to-create-a-listing-or-directory-website-with-wordpress/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/how-to-dj-with-the-pioneer-ddj-sb2/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/3-fingerstyle-guitar-techniques-you-need-to-know/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/canva-free-course/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/3-fingerstyle-guitar-techniques-you-need-to-know/</t>
+    <t>https://www.udemy.com/course/how-to-start-a-podcast/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/6-figure-mba-executive-coaching/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/save-time-in-face-animation-with-cartoon-animator-4-pipeline/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/astronomy-state-of-the-art/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/6-figure-mba-executive-coaching/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/save-time-in-face-animation-with-cartoon-animator-4-pipeline/</t>
+    <t>https://www.udemy.com/course/burst-productivity-myths-boost-productivity-quickly/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/git-and-github-crash-course-creating-a-repository-from-scratch/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/how-to-dj-with-the-pioneer-ddj-sb2/</t>
+    <t>https://www.udemy.com/course/ultimate-goal-setting-and-achieving/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/drawing-for-kids-learn-how-to-draw-cartoons-step-by-step/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/quick-guide-to-working-remotely-from-vp-of-learning/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/html5-fundamentals-for-beginners/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/drawing-for-kids-learn-how-to-draw-cartoons-step-by-step/</t>
+    <t>https://www.udemy.com/course/free-course-make-gimp-look-and-act-as-photoshop/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/contact-sheets/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/coding-for-kids/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/working-remotely-efficiently-and-effectively/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/beginner-strumming-secrets-15-video-digital-course/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/hdr-lighting-in-blender/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/build-a-quiz-app-with-html-css-and-javascript/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/code-your-first-game/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/7-scientifically-proven-steps-to-increase-your-influence/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/public-speaking-essentials/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/digitally-painting-and-drawing-eyes/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/open-the-doors-to-your-professional-success/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/master-the-5-key-elements-of-story/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/how-to-still-the-mind-through-meditation/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/css-flexbox-mastering-the-basics/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/funmastermike-teaches-all-chesskids/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/code-your-first-game/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/free-course-make-gimp-look-and-act-as-photoshop/</t>
+    <t>https://www.udemy.com/course/programming-101/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/change-agility-in-the-workplace-become-a-change-agent/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/how-to-set-goals-and-become-incredible/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/learn-how-to-make-a-wordpress-website-professional/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/powerpoint-for-beginners-free/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/amazon-web-services-aws-v/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/getting-started-with-the-paleo-diet/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/adobe-xd-experience-design/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/presentation-skills-secrets/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/art-of-baking/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/paint-and-roto-for-feature-film-vfx/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/quick-guide-to-working-remotely-from-vp-of-learning/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/public-speaking-essentials/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/coding-for-kids/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/beginner-strumming-secrets-15-video-digital-course/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/working-remotely-efficiently-and-effectively/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/hdr-lighting-in-blender/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/contact-sheets/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/build-a-quiz-app-with-html-css-and-javascript/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/yogaforbeginners/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/digitally-painting-and-drawing-eyes/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/ultimate-goal-setting-and-achieving/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/open-the-doors-to-your-professional-success/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/how-to-start-a-podcast/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/programming-101/</t>
+    <t>https://www.udemy.com/course/jupyter-notebook-server-with-aws-ec2-and-aws-vpc/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/yoursuccess/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/gimp-crash-course/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/foundation-skills-for-meditation/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/ajax-project/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/html-online-course/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/7-scientifically-proven-steps-to-increase-your-influence/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/master-the-5-key-elements-of-story/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/how-to-set-goals-and-become-incredible/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/how-to-still-the-mind-through-meditation/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/adobe-xd-experience-design/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/css-flexbox-mastering-the-basics/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/change-agility-in-the-workplace-become-a-change-agent/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/burst-productivity-myths-boost-productivity-quickly/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/learn-how-to-make-a-wordpress-website-professional/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/getting-started-with-the-paleo-diet/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/foundation-skills-for-meditation/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/powerpoint-for-beginners-free/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/art-of-baking/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/amazon-web-services-aws-v/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/gimp-crash-course/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/presentation-skills-secrets/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/jupyter-notebook-server-with-aws-ec2-and-aws-vpc/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/yoursuccess/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/ajax-project/</t>
+    <t>https://www.udemy.com/course/20-life-hacks-to-inspire-you-to-excel-in-business-life/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/linux-tutorials/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/fearless-public-speaker-bootcamp-by-ricky-mendoza/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/linux-tutorials/</t>
+    <t>https://www.udemy.com/course/starting-to-write/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/programming-for-entrepreneurs-javascript/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/sparkstarterkit/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/high-performance-secrets/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/starting-to-write/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/sparkstarterkit/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/programming-for-entrepreneurs-javascript/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/20-life-hacks-to-inspire-you-to-excel-in-business-life/</t>
+    <t>https://www.udemy.com/course/leadership-skills-to-ignite-creativity/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/another-20-free-life-hacks-to-inspire-you-to-excel-in-business-andlife/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/manageyourtime/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/goal-setting-discover-organise-and-achieve-your-goals/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/stairway-to-scala-setup-instructions/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/baseball2/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/how-to-build-a-website-using-wordpress/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/leadership-skills-to-ignite-creativity/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/goal-setting-discover-organise-and-achieve-your-goals/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/baseball2/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/another-20-free-life-hacks-to-inspire-you-to-excel-in-business-andlife/</t>
+    <t>https://www.udemy.com/course/how-to-install-wordpress-/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/2018-goals-plans-time/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/how-to-install-wordpress-/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/writers-success-series-get-your-first-draft-written-right/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/mindfulness-and-neuroplasticity/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/security-awareness-campaigns/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/camera-confidence-mini-course-be-better-on-camera/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/change-your-thinking/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/goal-setting/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/your-first-decentralized-app/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/beginners-guide-eight-steps-to-sterling-prose/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/your-first-decentralized-app/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/camera-confidence-mini-course-be-better-on-camera/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/stairway-to-scala-setup-instructions/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/goal-setting/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/security-awareness-campaigns/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/deep-work/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/how-to-build-and-make-a-wordpress-website-from-scratch-2017/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/15-essential-blues-guitar-licks/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/hyperthinking-upgrade-your-mind-to-success-on-business/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/changebeliefs/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/mindfulness-stress-reduction/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/how-to-be-more-productive-c/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/improve-your-web-design-experience-with-squarespace/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/3-major-roadblocks-to-productivity/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/introduction-to-game-dynamics/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/beginners-guide-to-meditation/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/selftransformation/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/16mindsetshifts/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/commanding-chaos/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/minimalism-simplicity-freedom/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/code-a-coming-soon-landing-page-in-bootstrap-4/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/mindset-makeover-training/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/master-a-financial-management-habit-and-worry-no-more/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/start-a-business-in-5-days-with-shopify-and-productlistgenie/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/stretchgoal/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/4-hour-work-life/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/how-to-build-and-make-a-wordpress-website-from-scratch-2017/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/change-your-thinking/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/mindfulness-and-neuroplasticity/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/hyperthinking-upgrade-your-mind-to-success-on-business/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/changebeliefs/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/how-to-be-more-productive-c/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/improve-your-web-design-experience-with-squarespace/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/3-major-roadblocks-to-productivity/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/mindset-makeover-training/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/mindfulness-stress-reduction/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/introduction-to-game-dynamics/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/16mindsetshifts/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/beginners-guide-to-meditation/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/commanding-chaos/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/minimalism-simplicity-freedom/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/code-a-coming-soon-landing-page-in-bootstrap-4/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/productivity-time-management-focus-and-success/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/stretchgoal/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/start-a-business-in-5-days-with-shopify-and-productlistgenie/</t>
+    <t>https://www.udemy.com/course/build-your-own-super-computer-with-raspberry-pi/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/beat-anxiety-forever/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/programming-for-kids-how-to-make-coding-fun/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/build-your-own-super-computer-with-raspberry-pi/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/selftransformation/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/beat-anxiety-forever/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/one-page-wordpress-website-for-beginners/</t>
   </si>
   <si>
@@ -436,78 +439,75 @@
     <t>https://www.udemy.com/course/reframing-your-life/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/personal-productivity-time-management-and-personal-success/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/boost-productivity-an-entrepreneurs-guide/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/producing-drums-with-ableton-live/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/sensu-introduction/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/how-to-use-cpanel-tutorial-wordpress/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/5-coordinate-implementation-of-emergency-preparedness/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/qtum-introductory-course/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/new-guitarist-guidebook-checklist/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/unity-3d-using-light-and-shadow-in-game-development/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/getting-started-with-angular-2/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/learn-to-make-an-animated-image-gallery-using-html5/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/introduction-to-bootstrap-3/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/ue4movabecamerasystem/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/boost-productivity-an-entrepreneurs-guide/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/sensu-introduction/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/producing-drums-with-ableton-live/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/personal-productivity-time-management-and-personal-success/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/how-to-use-cpanel-tutorial-wordpress/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/5-coordinate-implementation-of-emergency-preparedness/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/master-a-financial-management-habit-and-worry-no-more/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/qtum-introductory-course/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/new-guitarist-guidebook-checklist/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/unity-3d-using-light-and-shadow-in-game-development/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/learn-to-make-an-animated-image-gallery-using-html5/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/introduction-to-bootstrap-3/</t>
+    <t>https://www.udemy.com/course/brackets/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/basic-animation-in-adobe-after-effects/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/getting-started-with-angular-2/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/brackets/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/learn-meditation-theory-practice/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/time-management-mastery-course-enhanced-productivity/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/360gopro/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/start-a-blog-from-scratch/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/time-management-mastery-course-enhanced-productivity/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/360gopro/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/morning-meditation/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/bestrongwithresilience/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/goal-setting-mastery-set-goals-and-crush-them/</t>
   </si>
   <si>
     <t>https://www.udemy.com/course/hands-on-sketch-3-training-mobile-app-design-mini-course/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/bestrongwithresilience/</t>
-  </si>
-  <si>
     <t>App Center: Continuous Integration and Delivery for iOS</t>
   </si>
   <si>
@@ -520,84 +520,87 @@
     <t>Meditation For Being In Present Moment - 5 Present Breaths</t>
   </si>
   <si>
+    <t>Yoga for Desk Workers &amp; Students - SarahBethYoga</t>
+  </si>
+  <si>
     <t>Dog Training: Train your dog to walk on a treadmill.</t>
   </si>
   <si>
     <t>CCNA Quiz Questions: Exam prep. Get ready for your exam!</t>
   </si>
   <si>
+    <t>Make WordPress Hosting Easy with Plesk on DigitalOcean</t>
+  </si>
+  <si>
+    <t>Make WordPress Hosting Easy with Plesk on Amazon Lightsail</t>
+  </si>
+  <si>
+    <t>Foundation for Digitally Sketching a Face</t>
+  </si>
+  <si>
     <t>PI-101 Top 10 Classical Piano Pieces for Beginners</t>
   </si>
   <si>
-    <t>Make WordPress Hosting Easy with Plesk on DigitalOcean</t>
-  </si>
-  <si>
-    <t>Yoga for Desk Workers &amp; Students - SarahBethYoga</t>
-  </si>
-  <si>
     <t>Digital Painting Series Ep0. Dragon Bust</t>
   </si>
   <si>
-    <t>Foundation for Digitally Sketching a Face</t>
+    <t>How To Breakdance - From Beginner To Pro In Just 7 Days</t>
   </si>
   <si>
     <t>AWS VPC Transit Gateway  - Hands On Learning!</t>
   </si>
   <si>
-    <t>How To Breakdance - From Beginner To Pro In Just 7 Days</t>
+    <t>The Total Beginner's Guitar Course</t>
+  </si>
+  <si>
+    <t>ARKit BasketBall: Create Your First AR App Using ARKit</t>
+  </si>
+  <si>
+    <t>Protect Your Online Identity with Great Passwords</t>
+  </si>
+  <si>
+    <t>Unity 3D - Create a Top Down Camera with Editor Tools</t>
+  </si>
+  <si>
+    <t>Strategies For Boosting Your Spanish Vocabulary</t>
   </si>
   <si>
     <t>EMMET Faster HTML &amp; CSS workflow - Best Tool For Developers</t>
   </si>
   <si>
-    <t>ARKit BasketBall: Create Your First AR App Using ARKit</t>
-  </si>
-  <si>
-    <t>Protect Your Online Identity with Great Passwords</t>
-  </si>
-  <si>
-    <t>The Total Beginner's Guitar Course</t>
-  </si>
-  <si>
-    <t>Make WordPress Hosting Easy with Plesk on Amazon Lightsail</t>
-  </si>
-  <si>
-    <t>Strategies For Boosting Your Spanish Vocabulary</t>
-  </si>
-  <si>
-    <t>Unity 3D - Create a Top Down Camera with Editor Tools</t>
+    <t>How to Play Piano - Your First Lesson!</t>
   </si>
   <si>
     <t>Free Blender Crash Course!</t>
   </si>
   <si>
-    <t>How to Play Piano - Your First Lesson!</t>
-  </si>
-  <si>
     <t>Mental Health for Coping with Stress &amp; Anxiety (Coronavirus)</t>
   </si>
   <si>
+    <t>Introductory Aromatherapy Course For Natural Living</t>
+  </si>
+  <si>
+    <t>You can create Incredible Websites with HTML CSS learn how</t>
+  </si>
+  <si>
+    <t>Yoga for Beginners - SarahBethYoga</t>
+  </si>
+  <si>
+    <t>Art Fundamentals - Building Blocks of Digital Painting</t>
+  </si>
+  <si>
     <t>Photography Fundamentals for Beginners</t>
   </si>
   <si>
-    <t>You can create Incredible Websites with HTML CSS learn how</t>
-  </si>
-  <si>
-    <t>Introductory Aromatherapy Course For Natural Living</t>
-  </si>
-  <si>
     <t>Microcontrollers and the C Programming Language (MSP430)</t>
   </si>
   <si>
-    <t>Art Fundamentals - Building Blocks of Digital Painting</t>
+    <t>Introductory Photography Course</t>
   </si>
   <si>
     <t>Productivity for Artists</t>
   </si>
   <si>
-    <t>Introductory Photography Course</t>
-  </si>
-  <si>
     <t>Breath Secrets : 7 Day Challenge</t>
   </si>
   <si>
@@ -607,291 +610,291 @@
     <t>How to Create a Listing or Directory Website with WordPress</t>
   </si>
   <si>
+    <t>How to DJ with the Pioneer DDJ-SB2</t>
+  </si>
+  <si>
+    <t>Fingerstyle Guitar Mastery: 3 Techniques You Need To Know</t>
+  </si>
+  <si>
     <t>Canva |Top 10 Burning Questions &amp; How To's</t>
   </si>
   <si>
-    <t>Fingerstyle Guitar Mastery: 3 Techniques You Need To Know</t>
+    <t>How to Start a Podcast</t>
+  </si>
+  <si>
+    <t>Career: Complete Career Change Program</t>
+  </si>
+  <si>
+    <t>Save Time in Face Animation with Cartoon Animator 4 Pipeline</t>
   </si>
   <si>
     <t>Astronomy - State of the Art</t>
   </si>
   <si>
-    <t>Career: Complete Career Change Program</t>
-  </si>
-  <si>
-    <t>Save Time in Face Animation with Cartoon Animator 4 Pipeline</t>
+    <t>Burst Productivity Myths &amp; Boost Productivity Quickly !</t>
   </si>
   <si>
     <t>Git &amp; GitHub Crash Course: Create a Repository From Scratch!</t>
   </si>
   <si>
-    <t>How to DJ with the Pioneer DDJ-SB2</t>
+    <t>Ultimate Goal Setting and Achieving</t>
+  </si>
+  <si>
+    <t>Drawing for Beginners: How to Draw 25 Cartoons Step-by-Step</t>
+  </si>
+  <si>
+    <t>Best Practices for Working Remotely</t>
   </si>
   <si>
     <t>HTML5 and CSS3 Fundamentals</t>
   </si>
   <si>
-    <t>Drawing for Beginners: How to Draw 25 Cartoons Step-by-Step</t>
+    <t>How to make GIMP 2.8 look and act as Photoshop</t>
+  </si>
+  <si>
+    <t>Contact Sheets: Begin to take &amp; select great street photos</t>
+  </si>
+  <si>
+    <t>Coding for Kids-A Guide for Teachers and Parents</t>
+  </si>
+  <si>
+    <t>Working Remotely: Efficiently and Effectively</t>
+  </si>
+  <si>
+    <t>Beginner Strumming 15-Video Digital Course</t>
+  </si>
+  <si>
+    <t>HDR Image-Based Lighting in Blender</t>
+  </si>
+  <si>
+    <t>Build a Quiz App with HTML, CSS, and JavaScript</t>
+  </si>
+  <si>
+    <t>Code Your First Game: Arcade Classic in JavaScript on Canvas</t>
+  </si>
+  <si>
+    <t>7 Scientifically Proven Steps to Increase Your Influence</t>
+  </si>
+  <si>
+    <t>Public Speaking Essentials: How to Craft Your Personal Story</t>
+  </si>
+  <si>
+    <t>Digitally Painting and Drawing Eyes</t>
+  </si>
+  <si>
+    <t>Open the doors to your professional success!</t>
+  </si>
+  <si>
+    <t>Master the 5 Key Elements of Story</t>
+  </si>
+  <si>
+    <t>How To Still The Mind Through Meditation</t>
+  </si>
+  <si>
+    <t>CSS Flexbox - Mastering the Basics</t>
   </si>
   <si>
     <t>Kids Learn Chess the Fun &amp; Easy Way!</t>
   </si>
   <si>
-    <t>Code Your First Game: Arcade Classic in JavaScript on Canvas</t>
-  </si>
-  <si>
-    <t>How to make GIMP 2.8 look and act as Photoshop</t>
+    <t>Programming 101</t>
+  </si>
+  <si>
+    <t>Change Agility in the Workplace: Become a Change Agent</t>
+  </si>
+  <si>
+    <t>How to Set Goals and Become Incredible</t>
+  </si>
+  <si>
+    <t>Learn How to MAKE a WordPress Website - PROFESSIONAL</t>
+  </si>
+  <si>
+    <t>PowerPoint for Beginners - Program &amp; Animation Basics FREE</t>
+  </si>
+  <si>
+    <t>Amazon Web Services (AWS) - Zero to Hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting Started with the Paleo Diet </t>
+  </si>
+  <si>
+    <t>How to Design &amp; Prototype in Adobe XD</t>
+  </si>
+  <si>
+    <t>Presentation Skills Secrets:Delivering the Talk of Your Life</t>
+  </si>
+  <si>
+    <t>The Art of Baking with Yuppiechef</t>
   </si>
   <si>
     <t>Paint and Roto for Feature Film VFX 01</t>
   </si>
   <si>
-    <t>Best Practices for Working Remotely</t>
-  </si>
-  <si>
-    <t>Public Speaking Essentials: How to Craft Your Personal Story</t>
-  </si>
-  <si>
-    <t>Coding for Kids-A Guide for Teachers and Parents</t>
-  </si>
-  <si>
-    <t>Beginner Strumming 15-Video Digital Course</t>
-  </si>
-  <si>
-    <t>Working Remotely: Efficiently and Effectively</t>
-  </si>
-  <si>
-    <t>HDR Image-Based Lighting in Blender</t>
-  </si>
-  <si>
-    <t>Contact Sheets: Begin to take &amp; select great street photos</t>
-  </si>
-  <si>
-    <t>Build a Quiz App with HTML, CSS, and JavaScript</t>
-  </si>
-  <si>
-    <t>Yoga for Beginners - SarahBethYoga</t>
-  </si>
-  <si>
-    <t>Digitally Painting and Drawing Eyes</t>
-  </si>
-  <si>
-    <t>Ultimate Goal Setting and Achieving</t>
-  </si>
-  <si>
-    <t>Open the doors to your professional success!</t>
-  </si>
-  <si>
-    <t>How to Start a Podcast</t>
-  </si>
-  <si>
-    <t>Programming 101</t>
+    <t>Jupyter Notebook Server with AWS EC2 and AWS VPC</t>
+  </si>
+  <si>
+    <t>Success: How To Set HIGH Goals &amp; Actually Achieve Them!</t>
+  </si>
+  <si>
+    <t>GIMP Crash Course for Beginners!</t>
+  </si>
+  <si>
+    <t>Foundation Skills for a Successful Meditation Practice</t>
+  </si>
+  <si>
+    <t>Infinite Scroll Project AJAX MySQL API PHP jQuery</t>
   </si>
   <si>
     <t>Get to know HTML Learn HTML Basics</t>
   </si>
   <si>
-    <t>7 Scientifically Proven Steps to Increase Your Influence</t>
-  </si>
-  <si>
-    <t>Master the 5 Key Elements of Story</t>
-  </si>
-  <si>
-    <t>How to Set Goals and Become Incredible</t>
-  </si>
-  <si>
-    <t>How To Still The Mind Through Meditation</t>
-  </si>
-  <si>
-    <t>How to Design &amp; Prototype in Adobe XD</t>
-  </si>
-  <si>
-    <t>CSS Flexbox - Mastering the Basics</t>
-  </si>
-  <si>
-    <t>Change Agility in the Workplace: Become a Change Agent</t>
-  </si>
-  <si>
-    <t>Burst Productivity Myths &amp; Boost Productivity Quickly !</t>
-  </si>
-  <si>
-    <t>Learn How to MAKE a WordPress Website - PROFESSIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getting Started with the Paleo Diet </t>
-  </si>
-  <si>
-    <t>Foundation Skills for a Successful Meditation Practice</t>
-  </si>
-  <si>
-    <t>PowerPoint for Beginners - Program &amp; Animation Basics FREE</t>
-  </si>
-  <si>
-    <t>The Art of Baking with Yuppiechef</t>
-  </si>
-  <si>
-    <t>Amazon Web Services (AWS) - Zero to Hero</t>
-  </si>
-  <si>
-    <t>GIMP Crash Course for Beginners!</t>
-  </si>
-  <si>
-    <t>Presentation Skills Secrets:Delivering the Talk of Your Life</t>
-  </si>
-  <si>
-    <t>Jupyter Notebook Server with AWS EC2 and AWS VPC</t>
-  </si>
-  <si>
-    <t>Success: How To Set HIGH Goals &amp; Actually Achieve Them!</t>
-  </si>
-  <si>
-    <t>Infinite Scroll Project AJAX MySQL API PHP jQuery</t>
+    <t>20 Free Life Hacks to Inspire You to Excel in Business &amp;Life</t>
+  </si>
+  <si>
+    <t>Linux Tutorials and Projects (Free)</t>
   </si>
   <si>
     <t>How to speak to anyone &amp; be fearless - in less than 55 min</t>
   </si>
   <si>
-    <t>Linux Tutorials and Projects (Free)</t>
+    <t>Starting to write</t>
+  </si>
+  <si>
+    <t>Programming for Entrepreneurs - JavaScript</t>
+  </si>
+  <si>
+    <t>Spark Starter Kit</t>
   </si>
   <si>
     <t>High Performance Secrets</t>
   </si>
   <si>
-    <t>Starting to write</t>
-  </si>
-  <si>
-    <t>Spark Starter Kit</t>
-  </si>
-  <si>
-    <t>Programming for Entrepreneurs - JavaScript</t>
-  </si>
-  <si>
-    <t>20 Free Life Hacks to Inspire You to Excel in Business &amp;Life</t>
+    <t>7 Creative Leadership Skills that Drive Change</t>
+  </si>
+  <si>
+    <t>"Another" 20 Free Life Hacks to Inspire You to Excel in Life</t>
   </si>
   <si>
     <t>A Mini Course on Time Management</t>
   </si>
   <si>
+    <t>Goal Setting: Discover, organise and achieve your goals</t>
+  </si>
+  <si>
+    <t>Escalate Scala Training - Setup Instructions</t>
+  </si>
+  <si>
+    <t>Baseball Data Wrangling with Vagrant, R, and Retrosheet</t>
+  </si>
+  <si>
     <t>How To Build A Website Using WordPress - AMAZING</t>
   </si>
   <si>
-    <t>7 Creative Leadership Skills that Drive Change</t>
-  </si>
-  <si>
-    <t>Goal Setting: Discover, organise and achieve your goals</t>
-  </si>
-  <si>
-    <t>Baseball Data Wrangling with Vagrant, R, and Retrosheet</t>
-  </si>
-  <si>
-    <t>"Another" 20 Free Life Hacks to Inspire You to Excel in Life</t>
+    <t>Create Your First Wordpress Site in Under an Hour</t>
   </si>
   <si>
     <t>2020: How To Get Crystal Crystal Clear on Your Goals &amp; Plans</t>
   </si>
   <si>
-    <t>Create Your First Wordpress Site in Under an Hour</t>
-  </si>
-  <si>
     <t>Get Your First Draft Written Right!</t>
   </si>
   <si>
+    <t>Mindfulness and Neuroplasticity</t>
+  </si>
+  <si>
+    <t>Security Awareness Campaigns (Lite)</t>
+  </si>
+  <si>
+    <t>Camera Confidence Mini-Course: Be Better On Camera</t>
+  </si>
+  <si>
+    <t>How to Change Your Thinking &amp; become more Positive</t>
+  </si>
+  <si>
+    <t>How to Use SMART Goals: Achieve More in Less Time</t>
+  </si>
+  <si>
+    <t>Build and Deploy Your First Decentralized App with Etherem</t>
+  </si>
+  <si>
     <t>Make Your Writing Stand Out in Eight Easy Steps</t>
   </si>
   <si>
-    <t>Build and Deploy Your First Decentralized App with Etherem</t>
-  </si>
-  <si>
-    <t>Camera Confidence Mini-Course: Be Better On Camera</t>
-  </si>
-  <si>
-    <t>Escalate Scala Training - Setup Instructions</t>
-  </si>
-  <si>
-    <t>How to Use SMART Goals: Achieve More in Less Time</t>
-  </si>
-  <si>
-    <t>Security Awareness Campaigns (Lite)</t>
-  </si>
-  <si>
     <t>Concentration and Focus: The Principles of Deep Work</t>
   </si>
   <si>
+    <t>How To Build And Make A Wordpress Website From Scratch 2022</t>
+  </si>
+  <si>
     <t>15 Essential Blues Guitar Licks</t>
   </si>
   <si>
+    <t>Hyperthinking: improve your day to day learning &amp; creativity</t>
+  </si>
+  <si>
+    <t>How To Change Any Self Limiting Belief In 30 Minutes</t>
+  </si>
+  <si>
+    <t>Learn Mindfulness Meditation for a Calmer and Clearer mind</t>
+  </si>
+  <si>
+    <t>How To Be More Productive</t>
+  </si>
+  <si>
+    <t>Improve Your Web Design Experience with Squarespace</t>
+  </si>
+  <si>
+    <t>3 Major Roadblocks To Productivity (Plus Bonus Assessment)</t>
+  </si>
+  <si>
+    <t>Introduction to Game Dynamics with Unity 3D</t>
+  </si>
+  <si>
+    <t>Beginners Guide to Meditation</t>
+  </si>
+  <si>
+    <t>Transform Your Mind  - Transform Your Life</t>
+  </si>
+  <si>
+    <t>15 Mindset Shifts To Attract More Purpose, Play, &amp; Growth</t>
+  </si>
+  <si>
+    <t>Commanding Chaos - Make a Plan and Take Command!</t>
+  </si>
+  <si>
+    <t>Minimalism: Simplify Your Life</t>
+  </si>
+  <si>
+    <t>Code a 'Coming Soon' Landing Page in Bootstrap 4</t>
+  </si>
+  <si>
+    <t>Mindset Makeover Training (Powerful Techniques &amp; Meditation)</t>
+  </si>
+  <si>
+    <t>Master a Financial Management Habit &amp; Worry No More</t>
+  </si>
+  <si>
+    <t>Start a business in 5 days with Shopify and ProductListGenie</t>
+  </si>
+  <si>
+    <t>How To Accomplish Any Stretch Goal</t>
+  </si>
+  <si>
     <t>The 4 Hour Work Life: Improve Health, Sleep &amp; Productivity!</t>
   </si>
   <si>
-    <t>How To Build And Make A Wordpress Website From Scratch 2022</t>
-  </si>
-  <si>
-    <t>How to Change Your Thinking &amp; become more Positive</t>
-  </si>
-  <si>
-    <t>Mindfulness and Neuroplasticity</t>
-  </si>
-  <si>
-    <t>Hyperthinking: improve your day to day learning &amp; creativity</t>
-  </si>
-  <si>
-    <t>How To Change Any Self Limiting Belief In 30 Minutes</t>
-  </si>
-  <si>
-    <t>How To Be More Productive</t>
-  </si>
-  <si>
-    <t>Improve Your Web Design Experience with Squarespace</t>
-  </si>
-  <si>
-    <t>3 Major Roadblocks To Productivity (Plus Bonus Assessment)</t>
-  </si>
-  <si>
-    <t>Mindset Makeover Training (Powerful Techniques &amp; Meditation)</t>
-  </si>
-  <si>
-    <t>Learn Mindfulness Meditation for a Calmer and Clearer mind</t>
-  </si>
-  <si>
-    <t>Introduction to Game Dynamics with Unity 3D</t>
-  </si>
-  <si>
-    <t>15 Mindset Shifts To Attract More Purpose, Play, &amp; Growth</t>
-  </si>
-  <si>
-    <t>Beginners Guide to Meditation</t>
-  </si>
-  <si>
-    <t>Commanding Chaos - Make a Plan and Take Command!</t>
-  </si>
-  <si>
-    <t>Minimalism: Simplify Your Life</t>
-  </si>
-  <si>
-    <t>Code a 'Coming Soon' Landing Page in Bootstrap 4</t>
-  </si>
-  <si>
     <t>Productivity: Time Management, Focus and Success</t>
   </si>
   <si>
-    <t>How To Accomplish Any Stretch Goal</t>
-  </si>
-  <si>
-    <t>Start a business in 5 days with Shopify and ProductListGenie</t>
+    <t>Build Your Own Super Computer with Raspberry Pis</t>
+  </si>
+  <si>
+    <t>Beat Anxiety Forever With The "R.A.I.N. Switch Technique"</t>
   </si>
   <si>
     <t>Programming for Kids - How to Make Coding Fun</t>
   </si>
   <si>
-    <t>Build Your Own Super Computer with Raspberry Pis</t>
-  </si>
-  <si>
-    <t>Transform Your Mind  - Transform Your Life</t>
-  </si>
-  <si>
-    <t>Beat Anxiety Forever With The "R.A.I.N. Switch Technique"</t>
-  </si>
-  <si>
     <t>One Page WordPress Website For Beginners</t>
   </si>
   <si>
@@ -901,78 +904,75 @@
     <t>Reframing your life</t>
   </si>
   <si>
+    <t>The Complete Modern Success Productivity Formula 2.0 ®</t>
+  </si>
+  <si>
+    <t>Boost Productivity: An Entrepreneur's Guide</t>
+  </si>
+  <si>
+    <t>Producing Drums with Ableton Live and Drum Rack</t>
+  </si>
+  <si>
+    <t>Sensu - Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cPanel For WordPress: How To Use cPanel [Beginners] </t>
+  </si>
+  <si>
+    <t>Coordination and Implementation of Emergency Preparedness</t>
+  </si>
+  <si>
+    <t>Qtum Introductory Course</t>
+  </si>
+  <si>
+    <t>New Guitarist Guidebook &amp; Checklist</t>
+  </si>
+  <si>
+    <t>Unity 3d | Using Light and Shadow in Game Development</t>
+  </si>
+  <si>
+    <t>Getting Started with Angular 2+</t>
+  </si>
+  <si>
+    <t>Learn to Make an Animated Image Gallery using HTML5</t>
+  </si>
+  <si>
+    <t>Introduction to Bootstrap 3</t>
+  </si>
+  <si>
     <t>UE4 Movable Camera System</t>
   </si>
   <si>
-    <t>Boost Productivity: An Entrepreneur's Guide</t>
-  </si>
-  <si>
-    <t>Sensu - Introduction</t>
-  </si>
-  <si>
-    <t>Producing Drums with Ableton Live and Drum Rack</t>
-  </si>
-  <si>
-    <t>The Complete Modern Success Productivity Formula 2.0 ®</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cPanel For WordPress: How To Use cPanel [Beginners] </t>
-  </si>
-  <si>
-    <t>Coordination and Implementation of Emergency Preparedness</t>
-  </si>
-  <si>
-    <t>Master a Financial Management Habit &amp; Worry No More</t>
-  </si>
-  <si>
-    <t>Qtum Introductory Course</t>
-  </si>
-  <si>
-    <t>New Guitarist Guidebook &amp; Checklist</t>
-  </si>
-  <si>
-    <t>Unity 3d | Using Light and Shadow in Game Development</t>
-  </si>
-  <si>
-    <t>Learn to Make an Animated Image Gallery using HTML5</t>
-  </si>
-  <si>
-    <t>Introduction to Bootstrap 3</t>
+    <t>Learn Brackets - The Open Source Text Editor</t>
   </si>
   <si>
     <t>Basic Animation in Adobe After Effects</t>
   </si>
   <si>
-    <t>Getting Started with Angular 2+</t>
-  </si>
-  <si>
-    <t>Learn Brackets - The Open Source Text Editor</t>
-  </si>
-  <si>
     <t>Learn Meditation - Theory &amp; Practice</t>
   </si>
   <si>
+    <t>Time Management Mastery Course - Enhanced Productivity</t>
+  </si>
+  <si>
+    <t>Film and Stitch 360 VR Video with GoPros and AVP</t>
+  </si>
+  <si>
     <t>Start A Blog from Scratch (Self-Hosted Blog Tutorial)</t>
   </si>
   <si>
-    <t>Time Management Mastery Course - Enhanced Productivity</t>
-  </si>
-  <si>
-    <t>Film and Stitch 360 VR Video with GoPros and AVP</t>
-  </si>
-  <si>
     <t>Morning Meditation | Best Guided Meditation Under 10 Minutes</t>
   </si>
   <si>
+    <t>How to be confident with resilient mindset</t>
+  </si>
+  <si>
     <t>Goal Setting Mastery - Set Goals and Crush Them</t>
   </si>
   <si>
     <t>Hands on Sketch Training-Mobile App Design (Preview Course)</t>
   </si>
   <si>
-    <t>How to be confident with resilient mindset</t>
-  </si>
-  <si>
     <t>Automate your iOS development process</t>
   </si>
   <si>
@@ -985,84 +985,87 @@
     <t>Powerful Meditation for Developing Inner Stability and Peace - Develop Insight 20min a day</t>
   </si>
   <si>
+    <t>Short (all levels) yoga routines that will stretch you out and reduce tension in ~5 minutes each</t>
+  </si>
+  <si>
     <t>Watch four dogs learn how to walk on a treadmill for the first time!</t>
   </si>
   <si>
     <t>Are you ready for the CCNA exam? You sure? Check your knowledge with our CCNA Exam Quizzes. Make sure you're ready!</t>
   </si>
   <si>
+    <t>Host your WordPress website on DigitalOcean and simplify WordPress WebOps with Plesk hosting platform</t>
+  </si>
+  <si>
+    <t>Host your WordPress website on Amazon Lightsail and simplify WordPress WebOps with Plesk hosting platform</t>
+  </si>
+  <si>
+    <t>Accentuation of proper detail</t>
+  </si>
+  <si>
     <t>PI-101 In this 12-week course,  you will learn how to play 10 beautiful classical piano pieces for beginners.</t>
   </si>
   <si>
-    <t>Host your WordPress website on DigitalOcean and simplify WordPress WebOps with Plesk hosting platform</t>
-  </si>
-  <si>
-    <t>Short (all levels) yoga routines that will stretch you out and reduce tension in ~5 minutes each</t>
-  </si>
-  <si>
     <t>Learn to paint step by step. From amateur to master.</t>
   </si>
   <si>
-    <t>Accentuation of proper detail</t>
+    <t>The ultimate step by step "breaking" course to dominate the dancefloor at the next party, show or competition.</t>
   </si>
   <si>
     <t>Learn AWS VPC Transit Gateway hands on by implementing 3 practical scenarios</t>
   </si>
   <si>
-    <t>The ultimate step by step "breaking" course to dominate the dancefloor at the next party, show or competition.</t>
+    <t>Complete Beginner? This Is The Guitar Course For You.</t>
+  </si>
+  <si>
+    <t>Learn To Create Your First App Using ARKit</t>
+  </si>
+  <si>
+    <t>Learn how hackers steal your passwords and how to protect yourself from identity theft</t>
+  </si>
+  <si>
+    <t>Learn to create a Camera for your Top Down Games</t>
+  </si>
+  <si>
+    <t>Change your learning style to expand your Spanish vocab</t>
   </si>
   <si>
     <t>Emmet is plugin for text editors that helps you write HTML and CSS faster. Work quicker saving time &amp; making more money.</t>
   </si>
   <si>
-    <t>Learn To Create Your First App Using ARKit</t>
-  </si>
-  <si>
-    <t>Learn how hackers steal your passwords and how to protect yourself from identity theft</t>
-  </si>
-  <si>
-    <t>Complete Beginner? This Is The Guitar Course For You.</t>
-  </si>
-  <si>
-    <t>Host your WordPress website on Amazon Lightsail and simplify WordPress WebOps with Plesk hosting platform</t>
-  </si>
-  <si>
-    <t>Change your learning style to expand your Spanish vocab</t>
-  </si>
-  <si>
-    <t>Learn to create a Camera for your Top Down Games</t>
+    <t>Learn the black and white notes, understand keyboard &amp; piano types, and gain a big picture understanding of music</t>
   </si>
   <si>
     <t>Start now to create your 3D Scenes!</t>
   </si>
   <si>
-    <t>Learn the black and white notes, understand keyboard &amp; piano types, and gain a big picture understanding of music</t>
-  </si>
-  <si>
     <t>Growth Mindset, Psychology &amp; Mental Health to Find Opportunity in the Crisis &amp; Cope with Fear, Worry, Anxiety &amp; Stress</t>
   </si>
   <si>
+    <t>Aromatherapy-Learn how to use essential oils in your everyday life safely and effectively to make your own products</t>
+  </si>
+  <si>
+    <t>CSS and HTML working together to create web templates and more.  Create a webpage from scratch web development course.</t>
+  </si>
+  <si>
+    <t>Stretch, strengthen, tone &amp; relax with quick beginner yoga routines</t>
+  </si>
+  <si>
+    <t>A beginner's guide to the building blocks of digital art</t>
+  </si>
+  <si>
     <t>Learn the exposure triangle (aperture, shutter speed, ISO) and basic composition rules in this easy photography course.</t>
   </si>
   <si>
-    <t>CSS and HTML working together to create web templates and more.  Create a webpage from scratch web development course.</t>
-  </si>
-  <si>
-    <t>Aromatherapy-Learn how to use essential oils in your everyday life safely and effectively to make your own products</t>
-  </si>
-  <si>
     <t>Create C programs for a microcontroller using inputs/outputs, timers, analog-to-digital converters, comm ports, and LCD.</t>
   </si>
   <si>
-    <t>A beginner's guide to the building blocks of digital art</t>
+    <t>The fastest way to get off 'Auto' mode and unlock the creative potential of your camera.</t>
   </si>
   <si>
     <t>Get More Done every Day. Optimize your Focus, Motivation &amp; Energy.</t>
   </si>
   <si>
-    <t>The fastest way to get off 'Auto' mode and unlock the creative potential of your camera.</t>
-  </si>
-  <si>
     <t>Join David and Harness the Power of the Breath to Clear Mental Fog, Overcome Depression, and Access Inspiration</t>
   </si>
   <si>
@@ -1072,291 +1075,291 @@
     <t>Create a Professional Listing, Directory or Real Estate website With WordPress, Step by Step</t>
   </si>
   <si>
+    <t>From complete beginner to playing awesome DJ sets on the Pioneer DDJ-SB2 using beatmixing, cues, loops, samples &amp; more</t>
+  </si>
+  <si>
+    <t>Learn 3 essential modern fingerstyle techniques from Tobias Rauscher, the guitarist with 20.000.000+ YouTube views</t>
+  </si>
+  <si>
     <t>Let me answer the Internet's top 10 Canva questions &amp; How to's</t>
   </si>
   <si>
-    <t>Learn 3 essential modern fingerstyle techniques from Tobias Rauscher, the guitarist with 20.000.000+ YouTube views</t>
+    <t>Growing your brand? Want to share your passion with the masses? PODCASTING allows you to do both! Take our FREE course!</t>
+  </si>
+  <si>
+    <t>Career Change Strategies</t>
+  </si>
+  <si>
+    <t>Learn how to do smooth and organic facial animation that makes your characters look alive (not robotic or fake) in less</t>
   </si>
   <si>
     <t>Join Prof. Chris Impey in this Astronomy for beginners course and learn about today's amazing astronomical discoveries!</t>
   </si>
   <si>
-    <t>Career Change Strategies</t>
-  </si>
-  <si>
-    <t>Learn how to do smooth and organic facial animation that makes your characters look alive (not robotic or fake) in less</t>
+    <t>Quick, Actionable and Effective Strategies to Do more in Less Time.</t>
   </si>
   <si>
     <t>Learn how to create a Git repository, clone it, make changes, and submit changes to GitHub in less than 30 minutes.</t>
   </si>
   <si>
-    <t>From complete beginner to playing awesome DJ sets on the Pioneer DDJ-SB2 using beatmixing, cues, loops, samples &amp; more</t>
+    <t>Learn the secrets of the world's greatest achievers to help you turn your dreams into reality</t>
+  </si>
+  <si>
+    <t>Cartoon Drawing Lessons: An Inspiring Art Experience for Young Artists. Follow Me as I Teach Beginners How to Draw!</t>
+  </si>
+  <si>
+    <t>Join Shelley Osborne, VP of Learning, for her best tips to set yourself up for success when working from home.</t>
   </si>
   <si>
     <t>Build your very own website with HTML5 from scratch using HTML5 and CSS3 - designed for complete beginners</t>
   </si>
   <si>
-    <t>Cartoon Drawing Lessons: An Inspiring Art Experience for Young Artists. Follow Me as I Teach Beginners How to Draw!</t>
+    <t>Free courses aren't allowed to be updated anymore; please read my Instructor bio for a solution. Thank you.</t>
+  </si>
+  <si>
+    <t>Learn the whole photography process: think through the shots, work the scene, and determine what are the best photos.</t>
+  </si>
+  <si>
+    <t>Teacher guide for teaching elementary school children how to code a story they wrote.</t>
+  </si>
+  <si>
+    <t>Survive and thrive working outside of the office</t>
+  </si>
+  <si>
+    <t>Acoustic or Electric</t>
+  </si>
+  <si>
+    <t>Watch this crash course and master the complete HDR image-based lighting workflow, 100% Blender</t>
+  </si>
+  <si>
+    <t>Improve your core development skills by building a Quiz App with HTML, CSS, and JavaScript</t>
+  </si>
+  <si>
+    <t>Program a complete game today. No special software or install required. All you need is a text editor and a web browser.</t>
+  </si>
+  <si>
+    <t>Learn the science of charisma. Increase your impact, influence and income using 7 science based steps.</t>
+  </si>
+  <si>
+    <t>Teaching you to find your authentic voice and engage others through the power of your own stories.</t>
+  </si>
+  <si>
+    <t>Take Your Digital Paintings to the Next Level</t>
+  </si>
+  <si>
+    <t>Free yourself from barriers of childhood and family history</t>
+  </si>
+  <si>
+    <t>Understand what makes a story so you can make your story great.</t>
+  </si>
+  <si>
+    <t>A practical way to find inner peace and stability, to face the world.</t>
+  </si>
+  <si>
+    <t>For Beginners</t>
   </si>
   <si>
     <t>Become a chess player and better thinker through a series of fun animated chess lessons.</t>
   </si>
   <si>
-    <t>Program a complete game today. No special software or install required. All you need is a text editor and a web browser.</t>
-  </si>
-  <si>
-    <t>Free courses aren't allowed to be updated anymore; please read my Instructor bio for a solution. Thank you.</t>
+    <t>Comprehend basic foundational knowledge of hardware, networking, programming and licensing.</t>
+  </si>
+  <si>
+    <t>Become an agent of change by adopting the agility and resilience skills required in the evolving modern workplace.</t>
+  </si>
+  <si>
+    <t>A Beginners Guide to Excelling in Your Career</t>
+  </si>
+  <si>
+    <t>Create a WordPress Website Step by Step - DRAG AND DROP</t>
+  </si>
+  <si>
+    <t>PowerPoint basics is a free course where you learn basics about the software and its animation features. Enjoy!</t>
+  </si>
+  <si>
+    <t>Beginners, Zero to Hero. AWS EC2 web server, NodeJS Server, AWS RDS database server, S3, SES &amp; CloudWatch. FREE</t>
+  </si>
+  <si>
+    <t>The basics of getting started with the paleo diet and lifestyle strategies to help you lose body fat and get lean.</t>
+  </si>
+  <si>
+    <t>Everything you need to know about Adobe XD to start designing &amp; prototyping awesome apps.</t>
+  </si>
+  <si>
+    <t>Learn from a TED and TEDx Speaker the Secrets of Talk Development and Storytelling to Transform Your Communications.</t>
+  </si>
+  <si>
+    <t>Learn with our online cooking classes and get easy baking recipes, bread making, pastry classes and cake decorating</t>
   </si>
   <si>
     <t>Marker Removal in Nuke</t>
   </si>
   <si>
-    <t>Join Shelley Osborne, VP of Learning, for her best tips to set yourself up for success when working from home.</t>
-  </si>
-  <si>
-    <t>Teaching you to find your authentic voice and engage others through the power of your own stories.</t>
-  </si>
-  <si>
-    <t>Teacher guide for teaching elementary school children how to code a story they wrote.</t>
-  </si>
-  <si>
-    <t>Acoustic or Electric</t>
-  </si>
-  <si>
-    <t>Survive and thrive working outside of the office</t>
-  </si>
-  <si>
-    <t>Watch this crash course and master the complete HDR image-based lighting workflow, 100% Blender</t>
-  </si>
-  <si>
-    <t>Learn the whole photography process: think through the shots, work the scene, and determine what are the best photos.</t>
-  </si>
-  <si>
-    <t>Improve your core development skills by building a Quiz App with HTML, CSS, and JavaScript</t>
-  </si>
-  <si>
-    <t>Stretch, strengthen, tone &amp; relax with quick beginner yoga routines</t>
-  </si>
-  <si>
-    <t>Take Your Digital Paintings to the Next Level</t>
-  </si>
-  <si>
-    <t>Learn the secrets of the world's greatest achievers to help you turn your dreams into reality</t>
-  </si>
-  <si>
-    <t>Free yourself from barriers of childhood and family history</t>
-  </si>
-  <si>
-    <t>Growing your brand? Want to share your passion with the masses? PODCASTING allows you to do both! Take our FREE course!</t>
-  </si>
-  <si>
-    <t>Comprehend basic foundational knowledge of hardware, networking, programming and licensing.</t>
+    <t>Build a Cloud Server to run your Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>Master The Traits You Need To Get Rich and Wealthy In Business and In Life</t>
+  </si>
+  <si>
+    <t>Learn the basics of GIMP.  Setup to look like Photoshop. Learn how to use files and layers.</t>
+  </si>
+  <si>
+    <t>Learn how to find comfort in stillness, handle distraction and keep the mind focused to reap the benefits of meditation</t>
+  </si>
+  <si>
+    <t>Explore how to create a web application that sends requests to the server for additional data as users scroll the page</t>
   </si>
   <si>
     <t>Step by Step introduction to HTML Explore HTML coding and how you can get started creating your own Web Content pages</t>
   </si>
   <si>
-    <t>Learn the science of charisma. Increase your impact, influence and income using 7 science based steps.</t>
-  </si>
-  <si>
-    <t>Understand what makes a story so you can make your story great.</t>
-  </si>
-  <si>
-    <t>A Beginners Guide to Excelling in Your Career</t>
-  </si>
-  <si>
-    <t>A practical way to find inner peace and stability, to face the world.</t>
-  </si>
-  <si>
-    <t>Everything you need to know about Adobe XD to start designing &amp; prototyping awesome apps.</t>
-  </si>
-  <si>
-    <t>For Beginners</t>
-  </si>
-  <si>
-    <t>Become an agent of change by adopting the agility and resilience skills required in the evolving modern workplace.</t>
-  </si>
-  <si>
-    <t>Quick, Actionable and Effective Strategies to Do more in Less Time.</t>
-  </si>
-  <si>
-    <t>Create a WordPress Website Step by Step - DRAG AND DROP</t>
-  </si>
-  <si>
-    <t>The basics of getting started with the paleo diet and lifestyle strategies to help you lose body fat and get lean.</t>
-  </si>
-  <si>
-    <t>Learn how to find comfort in stillness, handle distraction and keep the mind focused to reap the benefits of meditation</t>
-  </si>
-  <si>
-    <t>PowerPoint basics is a free course where you learn basics about the software and its animation features. Enjoy!</t>
-  </si>
-  <si>
-    <t>Learn with our online cooking classes and get easy baking recipes, bread making, pastry classes and cake decorating</t>
-  </si>
-  <si>
-    <t>Beginners, Zero to Hero. AWS EC2 web server, NodeJS Server, AWS RDS database server, S3, SES &amp; CloudWatch. FREE</t>
-  </si>
-  <si>
-    <t>Learn the basics of GIMP.  Setup to look like Photoshop. Learn how to use files and layers.</t>
-  </si>
-  <si>
-    <t>Learn from a TED and TEDx Speaker the Secrets of Talk Development and Storytelling to Transform Your Communications.</t>
-  </si>
-  <si>
-    <t>Build a Cloud Server to run your Jupyter Notebooks</t>
-  </si>
-  <si>
-    <t>Master The Traits You Need To Get Rich and Wealthy In Business and In Life</t>
-  </si>
-  <si>
-    <t>Explore how to create a web application that sends requests to the server for additional data as users scroll the page</t>
+    <t>20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
+  </si>
+  <si>
+    <t>Free Tutorials Including Load Balancing, MySQL Replication, SSL Certificate Management and More.</t>
   </si>
   <si>
     <t>Learn to quickly connect with crowds of strangers, be better on dates or ace that job interview.</t>
   </si>
   <si>
-    <t>Free Tutorials Including Load Balancing, MySQL Replication, SSL Certificate Management and More.</t>
+    <t>Be a more creative you. Take small steps and start writing today.</t>
+  </si>
+  <si>
+    <t>Learn JavaScript from scratch and get started with that website/app/game project!</t>
+  </si>
+  <si>
+    <t>NOT another "What is Spark?" course ! Explore Spark in depth and get a strong foundation in Spark.</t>
   </si>
   <si>
     <t>Get To Your Next Level Of Success and Abundance Faster Using Methods Scientifically Proved to Work</t>
   </si>
   <si>
-    <t>Be a more creative you. Take small steps and start writing today.</t>
-  </si>
-  <si>
-    <t>NOT another "What is Spark?" course ! Explore Spark in depth and get a strong foundation in Spark.</t>
-  </si>
-  <si>
-    <t>Learn JavaScript from scratch and get started with that website/app/game project!</t>
-  </si>
-  <si>
-    <t>20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
+    <t>Build a creative environment in 7 easy steps without being the most creative person in the room.</t>
+  </si>
+  <si>
+    <t>Another 20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
   </si>
   <si>
     <t>7 steps you can use immediately to become more productive and master time management</t>
   </si>
   <si>
+    <t>Achieve your dreams and desires using this simple step-by-step method which contains many examples and useful tools</t>
+  </si>
+  <si>
+    <t>Set up environment and developer tools for enrolling in the Stairway to Scala training</t>
+  </si>
+  <si>
+    <t>Analytics with the Chadwick tools, dplyr, and ggplot.</t>
+  </si>
+  <si>
     <t>A Complete Guide To Building Amazing, Mobile Friendly Websites using WordPress.</t>
   </si>
   <si>
-    <t>Build a creative environment in 7 easy steps without being the most creative person in the room.</t>
-  </si>
-  <si>
-    <t>Achieve your dreams and desires using this simple step-by-step method which contains many examples and useful tools</t>
-  </si>
-  <si>
-    <t>Analytics with the Chadwick tools, dplyr, and ggplot.</t>
-  </si>
-  <si>
-    <t>Another 20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
+    <t>Covers the essential Wordpress installation techniques you need to create a passive income online!</t>
   </si>
   <si>
     <t>3 Counter-Intuitive Strategies You Can Use TODAY To SKYROCKET Your Chances of Success This Year!</t>
   </si>
   <si>
-    <t>Covers the essential Wordpress installation techniques you need to create a passive income online!</t>
-  </si>
-  <si>
     <t>Learn how to make the big changes and the tiny tweaks that will make YOUR novel stand out.</t>
   </si>
   <si>
+    <t>Learn what neuroplasticity is and how mindfulness techniques may be used to improve your life.</t>
+  </si>
+  <si>
+    <t>This is the "lite" version of Security Awareness Campaigns and is meant to give you an idea of the full course.</t>
+  </si>
+  <si>
+    <t>The quick-start guide to being more confident on camera for TV, YouTube, online teachers, spokespeople, and more!</t>
+  </si>
+  <si>
+    <t>Quick inspirational video tips to shift your perceptions so that you can  live the life you deserve.</t>
+  </si>
+  <si>
+    <t>Use a proven goal setting strategy to increase your productivity, leadership and management skills. Achieve more today.</t>
+  </si>
+  <si>
+    <t>Learn how to create Smart Contracts and Interact with them through a Web3 User Interface!</t>
+  </si>
+  <si>
     <t>Master brilliant writing and beat your competition with a research-based system designed by a professional writing coach</t>
   </si>
   <si>
-    <t>Learn how to create Smart Contracts and Interact with them through a Web3 User Interface!</t>
-  </si>
-  <si>
-    <t>The quick-start guide to being more confident on camera for TV, YouTube, online teachers, spokespeople, and more!</t>
-  </si>
-  <si>
-    <t>Set up environment and developer tools for enrolling in the Stairway to Scala training</t>
-  </si>
-  <si>
-    <t>Use a proven goal setting strategy to increase your productivity, leadership and management skills. Achieve more today.</t>
-  </si>
-  <si>
-    <t>This is the "lite" version of Security Awareness Campaigns and is meant to give you an idea of the full course.</t>
-  </si>
-  <si>
     <t>Apply Dr. Cal Newport's Deep Work methodology to Get Stuff Done</t>
   </si>
   <si>
+    <t>Take your business one step further. Make and build a beautiful and successful website. Learn &amp; master Wordpress easily!</t>
+  </si>
+  <si>
     <t>Learn to play classic blues</t>
   </si>
   <si>
+    <t>Train your mind for success with the right thinking tools and habits!</t>
+  </si>
+  <si>
+    <t>Watch Eric Remove One of His Limiting Beliefs Live! "I must work hard to survive"</t>
+  </si>
+  <si>
+    <t>Practical mindfulness meditation course showing the method how to increase concentration and reduce stress</t>
+  </si>
+  <si>
+    <t>Organise your life and get more done than you ever thought possible.</t>
+  </si>
+  <si>
+    <t>Featuring 25 video tutorials to help enhance your Squarespace experience, powered by Squarespace Summit.</t>
+  </si>
+  <si>
+    <t>Discover The Obstacles That Prevent Productivity &amp; How To Overome Them!</t>
+  </si>
+  <si>
+    <t>Learn professional game development techniques using the Unity 3D platform.</t>
+  </si>
+  <si>
+    <t>Meditation a tool for transformation</t>
+  </si>
+  <si>
+    <t>The Journey Of Self-Transformation Overview - The Journey Of Transforming Suffering States Of Mind into Happiness</t>
+  </si>
+  <si>
+    <t>Appreciate The Beauty Of Your Life Now, Grow Into Your Potential, &amp; Bring Purpose &amp; A Sense Of Play Into Your Work</t>
+  </si>
+  <si>
+    <t>Learn how to achieve your long AND short term goals by using proven methods rooted in emergency response operations.</t>
+  </si>
+  <si>
+    <t>Become a Minimalist, Surround Yourself by What You Love &amp; Apply the Best Methods, Principles, Techniques in Your Life.</t>
+  </si>
+  <si>
+    <t>Build your 'under construction' or 'coming soon' landing page with countdown clock in bootstrap 4</t>
+  </si>
+  <si>
+    <t>Discover &amp; Destroy Blocks to Success &amp; Happiness with Subconscious Reprogramming Techniques That Work!</t>
+  </si>
+  <si>
+    <t>Step by step instructions using CalendarBudget, you'll learn the habit of excellent budget management!</t>
+  </si>
+  <si>
+    <t>Take 'The Challenge' and learn how to start an exciting ecommerce business with Shopify and Product List Genie in 5 days</t>
+  </si>
+  <si>
+    <t>You Can Accomplish Any Goal With The Right Mindset And Work Ethic</t>
+  </si>
+  <si>
     <t>Learn to work efficiently and effectively online and start improving your life today with The 4 Hour Work Life!</t>
   </si>
   <si>
-    <t>Take your business one step further. Make and build a beautiful and successful website. Learn &amp; master Wordpress easily!</t>
-  </si>
-  <si>
-    <t>Quick inspirational video tips to shift your perceptions so that you can  live the life you deserve.</t>
-  </si>
-  <si>
-    <t>Learn what neuroplasticity is and how mindfulness techniques may be used to improve your life.</t>
-  </si>
-  <si>
-    <t>Train your mind for success with the right thinking tools and habits!</t>
-  </si>
-  <si>
-    <t>Watch Eric Remove One of His Limiting Beliefs Live! "I must work hard to survive"</t>
-  </si>
-  <si>
-    <t>Organise your life and get more done than you ever thought possible.</t>
-  </si>
-  <si>
-    <t>Featuring 25 video tutorials to help enhance your Squarespace experience, powered by Squarespace Summit.</t>
-  </si>
-  <si>
-    <t>Discover The Obstacles That Prevent Productivity &amp; How To Overome Them!</t>
-  </si>
-  <si>
-    <t>Discover &amp; Destroy Blocks to Success &amp; Happiness with Subconscious Reprogramming Techniques That Work!</t>
-  </si>
-  <si>
-    <t>Practical mindfulness meditation course showing the method how to increase concentration and reduce stress</t>
-  </si>
-  <si>
-    <t>Learn professional game development techniques using the Unity 3D platform.</t>
-  </si>
-  <si>
-    <t>Appreciate The Beauty Of Your Life Now, Grow Into Your Potential, &amp; Bring Purpose &amp; A Sense Of Play Into Your Work</t>
-  </si>
-  <si>
-    <t>Meditation a tool for transformation</t>
-  </si>
-  <si>
-    <t>Learn how to achieve your long AND short term goals by using proven methods rooted in emergency response operations.</t>
-  </si>
-  <si>
-    <t>Become a Minimalist, Surround Yourself by What You Love &amp; Apply the Best Methods, Principles, Techniques in Your Life.</t>
-  </si>
-  <si>
-    <t>Build your 'under construction' or 'coming soon' landing page with countdown clock in bootstrap 4</t>
-  </si>
-  <si>
     <t>How To Become More Productive And Manage Your Time Properly</t>
   </si>
   <si>
-    <t>You Can Accomplish Any Goal With The Right Mindset And Work Ethic</t>
-  </si>
-  <si>
-    <t>Take 'The Challenge' and learn how to start an exciting ecommerce business with Shopify and Product List Genie in 5 days</t>
+    <t>Create a computer cluster using Raspberry Pi boards - everything from hardware, software, design and networks</t>
+  </si>
+  <si>
+    <t>Learn How To Find The "Off-Switch" For Your Racing Thoughts And Feel Back In Control Within 14 Seconds</t>
   </si>
   <si>
     <t>Explore free tools, techniques and ideas to inspire fun and creativity in your children's approach to programming.</t>
   </si>
   <si>
-    <t>Create a computer cluster using Raspberry Pi boards - everything from hardware, software, design and networks</t>
-  </si>
-  <si>
-    <t>The Journey Of Self-Transformation Overview - The Journey Of Transforming Suffering States Of Mind into Happiness</t>
-  </si>
-  <si>
-    <t>Learn How To Find The "Off-Switch" For Your Racing Thoughts And Feel Back In Control Within 14 Seconds</t>
-  </si>
-  <si>
     <t>Learn How to Make a Single Page WordPress Website With a Free WordPress Theme</t>
   </si>
   <si>
@@ -1366,78 +1369,75 @@
     <t>How to think differently and act differently</t>
   </si>
   <si>
+    <t>Learn The Scientific Basis Of Time Management And Personal Productivity And Learn How To Use It To Your Advantage</t>
+  </si>
+  <si>
+    <t>Improve Productivity and Avoid Burnout</t>
+  </si>
+  <si>
+    <t>A comprehensive overview of how to use Drum Rack and how to produce better sounding drum kits in Live.</t>
+  </si>
+  <si>
+    <t>Get your feet wet with this Next Generation Monitoring Framework!</t>
+  </si>
+  <si>
+    <t>cPanel Tutorial for WordPress: Discover How To Easily Use cPanel To Improve Your Website...Fast!</t>
+  </si>
+  <si>
+    <t>Part of WSQ - Advanced certificate in Workplace Safety in Health</t>
+  </si>
+  <si>
+    <t>An introduction to the Qtum Blockchain - what it is and what the benefits are</t>
+  </si>
+  <si>
+    <t>The Complete Guide For All New And Returning Guitarists Ready To Begin a Guitar Playing Journey</t>
+  </si>
+  <si>
+    <t>Learn how to use light and shadow to create amazing game levels and scenes.</t>
+  </si>
+  <si>
+    <t>Learn how to build your first Angular 2+ app!</t>
+  </si>
+  <si>
+    <t>A Quick Guide to Learn Animation in HTML</t>
+  </si>
+  <si>
+    <t>An introduction to the basic features of Twitter Bootstrap 3 including the grid system, responsive utilities and mixins.</t>
+  </si>
+  <si>
     <t>Learning how to visual code in Unreal Engine 4 by making a Movable Camera System.</t>
   </si>
   <si>
-    <t>Improve Productivity and Avoid Burnout</t>
-  </si>
-  <si>
-    <t>Get your feet wet with this Next Generation Monitoring Framework!</t>
-  </si>
-  <si>
-    <t>A comprehensive overview of how to use Drum Rack and how to produce better sounding drum kits in Live.</t>
-  </si>
-  <si>
-    <t>Learn The Scientific Basis Of Time Management And Personal Productivity And Learn How To Use It To Your Advantage</t>
-  </si>
-  <si>
-    <t>cPanel Tutorial for WordPress: Discover How To Easily Use cPanel To Improve Your Website...Fast!</t>
-  </si>
-  <si>
-    <t>Part of WSQ - Advanced certificate in Workplace Safety in Health</t>
-  </si>
-  <si>
-    <t>Step by step instructions using CalendarBudget, you'll learn the habit of excellent budget management!</t>
-  </si>
-  <si>
-    <t>An introduction to the Qtum Blockchain - what it is and what the benefits are</t>
-  </si>
-  <si>
-    <t>The Complete Guide For All New And Returning Guitarists Ready To Begin a Guitar Playing Journey</t>
-  </si>
-  <si>
-    <t>Learn how to use light and shadow to create amazing game levels and scenes.</t>
-  </si>
-  <si>
-    <t>A Quick Guide to Learn Animation in HTML</t>
-  </si>
-  <si>
-    <t>An introduction to the basic features of Twitter Bootstrap 3 including the grid system, responsive utilities and mixins.</t>
+    <t>Brackets is the free, open source code editor. Explore its many powerful features in this tutorial!</t>
   </si>
   <si>
     <t>You too can make cartoons!</t>
   </si>
   <si>
-    <t>Learn how to build your first Angular 2+ app!</t>
-  </si>
-  <si>
-    <t>Brackets is the free, open source code editor. Explore its many powerful features in this tutorial!</t>
-  </si>
-  <si>
     <t>yoga for life</t>
   </si>
   <si>
+    <t>A Scientific Approach Behind Time Management - Time Management Has Never Been Easier - Time Management Mastery Course</t>
+  </si>
+  <si>
+    <t>Learn to create incredible, immersive 360 video content like a pro!</t>
+  </si>
+  <si>
     <t>A Step by Step Guide to Starting A Self-Hosted Blog using WordPress</t>
   </si>
   <si>
-    <t>A Scientific Approach Behind Time Management - Time Management Has Never Been Easier - Time Management Mastery Course</t>
-  </si>
-  <si>
-    <t>Learn to create incredible, immersive 360 video content like a pro!</t>
-  </si>
-  <si>
     <t>Create your PERFECT LIFE with just a 10 minute meditation every morning! Morning Envy is the best meditation!</t>
   </si>
   <si>
+    <t>Change your life with developing your mindset to positivity</t>
+  </si>
+  <si>
     <t>Set Goals - Plan Properly - Execute - Be Consistent - Manage Your Time - Manage Your Mind - Achieve Your Goals</t>
   </si>
   <si>
     <t>Try the preview version of the course for a taste of using Sketch for mobile app design. Try the full version for more.</t>
   </si>
   <si>
-    <t>Change your life with developing your mindset to positivity</t>
-  </si>
-  <si>
     <t>Xamarin University</t>
   </si>
   <si>
@@ -1450,81 +1450,81 @@
     <t>Jonny John Liu</t>
   </si>
   <si>
+    <t>Sarah Beth Yoga</t>
+  </si>
+  <si>
     <t>Ted Efthymiadis</t>
   </si>
   <si>
     <t>David Bombal</t>
   </si>
   <si>
+    <t>Plesk University</t>
+  </si>
+  <si>
+    <t>Chris Scalf</t>
+  </si>
+  <si>
     <t>Dan Hegelund</t>
   </si>
   <si>
-    <t>Plesk University</t>
-  </si>
-  <si>
-    <t>Sarah Beth Yoga</t>
-  </si>
-  <si>
     <t>Austin Batchelor</t>
   </si>
   <si>
-    <t>Chris Scalf</t>
+    <t>Bboy Harribo</t>
   </si>
   <si>
     <t>Kalyan Reddy Daida | DevOps &amp; SRE Architect on AWS, Azure &amp; Google Cloud Platforms</t>
   </si>
   <si>
-    <t>Bboy Harribo</t>
+    <t>Michael Palmisano</t>
+  </si>
+  <si>
+    <t>Gabriel Abraham</t>
+  </si>
+  <si>
+    <t>Ryan Foster</t>
+  </si>
+  <si>
+    <t>Indie - Pixel</t>
+  </si>
+  <si>
+    <t>Nikki Joslin</t>
   </si>
   <si>
     <t>Edwin Diaz, Coding Faculty Solutions</t>
   </si>
   <si>
-    <t>Gabriel Abraham</t>
-  </si>
-  <si>
-    <t>Ryan Foster</t>
-  </si>
-  <si>
-    <t>Michael Palmisano</t>
-  </si>
-  <si>
-    <t>Nikki Joslin</t>
-  </si>
-  <si>
-    <t>Indie - Pixel</t>
+    <t>Musicians Inspired</t>
   </si>
   <si>
     <t>Gustavo Rosa</t>
   </si>
   <si>
-    <t>Musicians Inspired</t>
-  </si>
-  <si>
     <t>Joeel &amp; Natalie Rivera, Transformation Services</t>
   </si>
   <si>
+    <t>Mark Perren-Jones</t>
+  </si>
+  <si>
+    <t>Laurence Svekis</t>
+  </si>
+  <si>
+    <t>Hardy Fowler</t>
+  </si>
+  <si>
     <t>Phil Ebiner, Video School</t>
   </si>
   <si>
-    <t>Laurence Svekis</t>
-  </si>
-  <si>
-    <t>Mark Perren-Jones</t>
-  </si>
-  <si>
     <t>Mark M. Budnik, Mark Budnik</t>
   </si>
   <si>
-    <t>Hardy Fowler</t>
+    <t>Chris Bray</t>
   </si>
   <si>
     <t>Mikael Baggström</t>
   </si>
   <si>
-    <t>Chris Bray</t>
-  </si>
-  <si>
     <t>David Beaudry</t>
   </si>
   <si>
@@ -1534,261 +1534,264 @@
     <t>Nayyar Shaikh</t>
   </si>
   <si>
+    <t>Joey Santos</t>
+  </si>
+  <si>
+    <t>Tobias Rauscher</t>
+  </si>
+  <si>
     <t>Ronny Hermosa</t>
   </si>
   <si>
-    <t>Tobias Rauscher</t>
+    <t>COURSE ENVY</t>
+  </si>
+  <si>
+    <t>Karen Gurney</t>
+  </si>
+  <si>
+    <t>2D Animation 101 Courses</t>
   </si>
   <si>
     <t>Chris Impey, Matthew Wenger, Martin Formanek</t>
   </si>
   <si>
-    <t>Karen Gurney</t>
-  </si>
-  <si>
-    <t>2D Animation 101 Courses</t>
+    <t>Ron N</t>
   </si>
   <si>
     <t>Kalob Taulien</t>
   </si>
   <si>
-    <t>Joey Santos</t>
+    <t>AJ Kulatunga</t>
+  </si>
+  <si>
+    <t>Em Winn</t>
+  </si>
+  <si>
+    <t>Shelley Osborne, Udemy Learning Team</t>
   </si>
   <si>
     <t>Stone River eLearning</t>
   </si>
   <si>
-    <t>Em Winn</t>
+    <t>Bernard 't Hooft</t>
+  </si>
+  <si>
+    <t>Thomas Leuthard</t>
+  </si>
+  <si>
+    <t>Jim Gribble</t>
+  </si>
+  <si>
+    <t>Michael Taylor</t>
+  </si>
+  <si>
+    <t>Guitar Jamz Guitar Lessons</t>
+  </si>
+  <si>
+    <t>Aidy Burrows, Gleb Alexandrov</t>
+  </si>
+  <si>
+    <t>James Quick</t>
+  </si>
+  <si>
+    <t>Chris DeLeon</t>
+  </si>
+  <si>
+    <t>Vanessa Van Edwards, Science of People</t>
+  </si>
+  <si>
+    <t>Josh Withrow</t>
+  </si>
+  <si>
+    <t>Bertold Ulsamer</t>
+  </si>
+  <si>
+    <t>TD Storm</t>
+  </si>
+  <si>
+    <t>Jeyaprakash M</t>
+  </si>
+  <si>
+    <t>Vishwas Gopinath</t>
   </si>
   <si>
     <t>Mike Klein</t>
   </si>
   <si>
-    <t>Chris DeLeon</t>
-  </si>
-  <si>
-    <t>Bernard 't Hooft</t>
+    <t>Lawrence Turton</t>
+  </si>
+  <si>
+    <t>Jerry Acuff</t>
+  </si>
+  <si>
+    <t>Wordpress Guru</t>
+  </si>
+  <si>
+    <t>Andrew Pach</t>
+  </si>
+  <si>
+    <t>BackSpace Academy</t>
+  </si>
+  <si>
+    <t>Chris Hiestand</t>
+  </si>
+  <si>
+    <t>Daniel White</t>
+  </si>
+  <si>
+    <t>Steve Garguilo</t>
+  </si>
+  <si>
+    <t>Yuppiechef Courses</t>
   </si>
   <si>
     <t>Michael North</t>
   </si>
   <si>
-    <t>Shelley Osborne, Udemy Learning Team</t>
-  </si>
-  <si>
-    <t>Josh Withrow</t>
-  </si>
-  <si>
-    <t>Jim Gribble</t>
-  </si>
-  <si>
-    <t>Guitar Jamz Guitar Lessons</t>
-  </si>
-  <si>
-    <t>Michael Taylor</t>
-  </si>
-  <si>
-    <t>Aidy Burrows, Gleb Alexandrov</t>
-  </si>
-  <si>
-    <t>Thomas Leuthard</t>
-  </si>
-  <si>
-    <t>James Quick</t>
-  </si>
-  <si>
-    <t>AJ Kulatunga</t>
-  </si>
-  <si>
-    <t>Bertold Ulsamer</t>
-  </si>
-  <si>
-    <t>COURSE ENVY</t>
-  </si>
-  <si>
-    <t>Lawrence Turton</t>
-  </si>
-  <si>
-    <t>Vanessa Van Edwards, Science of People</t>
-  </si>
-  <si>
-    <t>TD Storm</t>
-  </si>
-  <si>
-    <t>Jerry Acuff</t>
-  </si>
-  <si>
-    <t>Jeyaprakash M</t>
-  </si>
-  <si>
-    <t>Daniel White</t>
-  </si>
-  <si>
-    <t>Vishwas Gopinath</t>
-  </si>
-  <si>
-    <t>Ron N</t>
-  </si>
-  <si>
-    <t>Wordpress Guru</t>
-  </si>
-  <si>
-    <t>Chris Hiestand</t>
+    <t>Justin Mitchel</t>
+  </si>
+  <si>
+    <t>Heather K. Woodward</t>
+  </si>
+  <si>
+    <t>Chris Parker</t>
   </si>
   <si>
     <t>Laura Goellner E-RYT, C-IAYT</t>
   </si>
   <si>
-    <t>Andrew Pach</t>
-  </si>
-  <si>
-    <t>Yuppiechef Courses</t>
-  </si>
-  <si>
-    <t>BackSpace Academy</t>
-  </si>
-  <si>
-    <t>Chris Parker</t>
-  </si>
-  <si>
-    <t>Steve Garguilo</t>
-  </si>
-  <si>
-    <t>Justin Mitchel</t>
-  </si>
-  <si>
-    <t>Heather K. Woodward</t>
+    <t>Chris Haroun</t>
+  </si>
+  <si>
+    <t>Jason Cannon</t>
   </si>
   <si>
     <t>Ricardo Mendoza</t>
   </si>
   <si>
-    <t>Jason Cannon</t>
+    <t>Louise Tondeur</t>
+  </si>
+  <si>
+    <t>Pablo Farias Navarro, Zenva Academy</t>
+  </si>
+  <si>
+    <t>Hadoop In Real World</t>
   </si>
   <si>
     <t>Mike Pettigrew</t>
   </si>
   <si>
-    <t>Louise Tondeur</t>
-  </si>
-  <si>
-    <t>Hadoop In Real World</t>
-  </si>
-  <si>
-    <t>Pablo Farias Navarro, Zenva Academy</t>
-  </si>
-  <si>
-    <t>Chris Haroun</t>
-  </si>
-  <si>
     <t>Brandon Hakim, Insider School</t>
   </si>
   <si>
+    <t>Georgios Grigorakis</t>
+  </si>
+  <si>
+    <t>Dick Wall</t>
+  </si>
+  <si>
+    <t>Charles Redmond</t>
+  </si>
+  <si>
     <t>Martie Dread</t>
   </si>
   <si>
-    <t>Georgios Grigorakis</t>
-  </si>
-  <si>
-    <t>Charles Redmond</t>
-  </si>
-  <si>
     <t>Grant Klimaytys</t>
   </si>
   <si>
     <t>Carl Plumer</t>
   </si>
   <si>
+    <t>Salvador Choussy</t>
+  </si>
+  <si>
+    <t>Michael Goedeker</t>
+  </si>
+  <si>
+    <t>Phil Ebiner, Christian Hartnett, Video School</t>
+  </si>
+  <si>
+    <t>Wolfgang Riebe</t>
+  </si>
+  <si>
+    <t>Richard Feenstra</t>
+  </si>
+  <si>
+    <t>Gary Simon</t>
+  </si>
+  <si>
     <t>Rachel Leroy                                 BA, MA, MFA</t>
   </si>
   <si>
-    <t>Gary Simon</t>
-  </si>
-  <si>
-    <t>Phil Ebiner, Christian Hartnett, Video School</t>
-  </si>
-  <si>
-    <t>Dick Wall</t>
-  </si>
-  <si>
-    <t>Richard Feenstra</t>
-  </si>
-  <si>
-    <t>Michael Goedeker</t>
-  </si>
-  <si>
     <t>Nathan Robertson</t>
   </si>
   <si>
+    <t>Ido Moskovits</t>
+  </si>
+  <si>
     <t>Absolute Blues Guitar Guitar Lessons</t>
   </si>
   <si>
+    <t>Digital Masterclass - Online Series, Philip Weiss</t>
+  </si>
+  <si>
+    <t>Eric John Campbell, David Papa</t>
+  </si>
+  <si>
+    <t>Per Norrgren</t>
+  </si>
+  <si>
+    <t>Tony Staunton</t>
+  </si>
+  <si>
+    <t>David Di Franco</t>
+  </si>
+  <si>
+    <t>Beau Laviolette, LCSW</t>
+  </si>
+  <si>
+    <t>Christina Abad</t>
+  </si>
+  <si>
+    <t>Eric John Campbell</t>
+  </si>
+  <si>
+    <t>James J. Stamatelos</t>
+  </si>
+  <si>
+    <t>Revshan Abdurakhmanov</t>
+  </si>
+  <si>
+    <t>Andy Clarke</t>
+  </si>
+  <si>
+    <t>Rachael L. Thompson</t>
+  </si>
+  <si>
+    <t>Eric Poulin</t>
+  </si>
+  <si>
+    <t>Tim Sharp</t>
+  </si>
+  <si>
+    <t>Marc Guberti</t>
+  </si>
+  <si>
     <t>Suppoman ™</t>
   </si>
   <si>
-    <t>Ido Moskovits</t>
-  </si>
-  <si>
-    <t>Wolfgang Riebe</t>
-  </si>
-  <si>
-    <t>Salvador Choussy</t>
-  </si>
-  <si>
-    <t>Digital Masterclass - Online Series, Philip Weiss</t>
-  </si>
-  <si>
-    <t>Eric John Campbell, David Papa</t>
-  </si>
-  <si>
-    <t>Tony Staunton</t>
-  </si>
-  <si>
-    <t>David Di Franco</t>
-  </si>
-  <si>
-    <t>Beau Laviolette, LCSW</t>
-  </si>
-  <si>
-    <t>Rachael L. Thompson</t>
-  </si>
-  <si>
-    <t>Per Norrgren</t>
-  </si>
-  <si>
-    <t>Eric John Campbell</t>
-  </si>
-  <si>
-    <t>Christina Abad</t>
-  </si>
-  <si>
-    <t>James J. Stamatelos</t>
-  </si>
-  <si>
-    <t>Revshan Abdurakhmanov</t>
-  </si>
-  <si>
-    <t>Andy Clarke</t>
-  </si>
-  <si>
     <t>Noah ​Merriby</t>
   </si>
   <si>
-    <t>Marc Guberti</t>
-  </si>
-  <si>
-    <t>Tim Sharp</t>
+    <t>Ben Heidorn</t>
+  </si>
+  <si>
+    <t>Steve Pavilanis</t>
   </si>
   <si>
     <t>Fractus Learning</t>
   </si>
   <si>
-    <t>Ben Heidorn</t>
-  </si>
-  <si>
-    <t>Steve Pavilanis</t>
-  </si>
-  <si>
     <t>Tom Johnson</t>
   </si>
   <si>
@@ -1798,63 +1801,60 @@
     <t>Karim Benammar, Ph.D.</t>
   </si>
   <si>
+    <t>Noah ​Merriby, Wristen Smith</t>
+  </si>
+  <si>
+    <t>Gavin Edley</t>
+  </si>
+  <si>
+    <t>Alec Ness</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Kent Mauresmo</t>
+  </si>
+  <si>
+    <t>GREENSAFE INTERNATIONAL PTE LTD, Dioworks Group</t>
+  </si>
+  <si>
+    <t>Nick Hill, Zulekha Cara, Daniel Schwartzkopff, Jonathan Mayer</t>
+  </si>
+  <si>
+    <t>Scott Perry</t>
+  </si>
+  <si>
+    <t>Ryan Chenkie, Angularcasts: End-to-end Angular Screencasts</t>
+  </si>
+  <si>
+    <t>Eduonix Learning Solutions, Eduonix-Tech .</t>
+  </si>
+  <si>
+    <t>AJ Meyghani</t>
+  </si>
+  <si>
     <t>Weston Huett</t>
   </si>
   <si>
-    <t>Gavin Edley</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
-    <t>Alec Ness</t>
-  </si>
-  <si>
-    <t>Noah ​Merriby, Wristen Smith</t>
-  </si>
-  <si>
-    <t>Kent Mauresmo</t>
-  </si>
-  <si>
-    <t>GREENSAFE INTERNATIONAL PTE LTD, Dioworks Group</t>
-  </si>
-  <si>
-    <t>Eric Poulin</t>
-  </si>
-  <si>
-    <t>Nick Hill, Zulekha Cara, Daniel Schwartzkopff, Jonathan Mayer</t>
-  </si>
-  <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
-    <t>Eduonix Learning Solutions, Eduonix-Tech .</t>
-  </si>
-  <si>
-    <t>AJ Meyghani</t>
+    <t>Daniel Stern</t>
   </si>
   <si>
     <t>Vadim Daschinsky</t>
   </si>
   <si>
-    <t>Ryan Chenkie, Angularcasts: End-to-end Angular Screencasts</t>
-  </si>
-  <si>
-    <t>Daniel Stern</t>
-  </si>
-  <si>
     <t>Srinivas Gadepalli</t>
   </si>
   <si>
     <t>Noah Scott</t>
   </si>
   <si>
+    <t>Alex E</t>
+  </si>
+  <si>
     <t>Arend Pryor</t>
   </si>
   <si>
-    <t>Alex E</t>
-  </si>
-  <si>
     <t>Puan: 4,9 / 5</t>
   </si>
   <si>
@@ -1885,12 +1885,12 @@
     <t>Puan: 4,0 / 5</t>
   </si>
   <si>
+    <t>Puan: 3,9 / 5</t>
+  </si>
+  <si>
     <t>Puan: 3,8 / 5</t>
   </si>
   <si>
-    <t>Puan: 3,9 / 5</t>
-  </si>
-  <si>
     <t>Puan: 3,7 / 5</t>
   </si>
   <si>
@@ -1924,12 +1924,12 @@
     <t>4,0</t>
   </si>
   <si>
+    <t>3,9</t>
+  </si>
+  <si>
     <t>3,8</t>
   </si>
   <si>
-    <t>3,9</t>
-  </si>
-  <si>
     <t>3,7</t>
   </si>
   <si>
@@ -1939,36 +1939,36 @@
     <t>Toplam 1 saat</t>
   </si>
   <si>
+    <t>Toplam 44 dakika</t>
+  </si>
+  <si>
     <t>Toplam 43 dakika</t>
   </si>
   <si>
-    <t>Toplam 44 dakika</t>
+    <t>Toplam 42 dakika</t>
   </si>
   <si>
     <t>Toplam 2 saat</t>
   </si>
   <si>
-    <t>Toplam 42 dakika</t>
+    <t>Toplam 31 dakika</t>
   </si>
   <si>
     <t>Toplam 2,5 saat</t>
   </si>
   <si>
-    <t>Toplam 31 dakika</t>
-  </si>
-  <si>
     <t>Toplam 32 saat</t>
   </si>
   <si>
     <t>Toplam 34 dakika</t>
   </si>
   <si>
+    <t>Toplam 5 saat</t>
+  </si>
+  <si>
     <t>Toplam 23,5 saat</t>
   </si>
   <si>
-    <t>Toplam 5 saat</t>
-  </si>
-  <si>
     <t>Toplam 37 dakika</t>
   </si>
   <si>
@@ -1978,12 +1978,12 @@
     <t>Toplam 40 dakika</t>
   </si>
   <si>
+    <t>Toplam 21 dakika</t>
+  </si>
+  <si>
     <t>Toplam 4,5 saat</t>
   </si>
   <si>
-    <t>Toplam 21 dakika</t>
-  </si>
-  <si>
     <t>Toplam 32 dakika</t>
   </si>
   <si>
@@ -2020,57 +2020,57 @@
     <t>7 ders</t>
   </si>
   <si>
+    <t>6 ders</t>
+  </si>
+  <si>
     <t>8 ders</t>
   </si>
   <si>
     <t>105 ders</t>
   </si>
   <si>
+    <t>25 ders</t>
+  </si>
+  <si>
+    <t>28 ders</t>
+  </si>
+  <si>
+    <t>5 ders</t>
+  </si>
+  <si>
     <t>38 ders</t>
   </si>
   <si>
-    <t>25 ders</t>
-  </si>
-  <si>
-    <t>6 ders</t>
-  </si>
-  <si>
     <t>18 ders</t>
   </si>
   <si>
-    <t>5 ders</t>
-  </si>
-  <si>
-    <t>28 ders</t>
-  </si>
-  <si>
     <t>22 ders</t>
   </si>
   <si>
+    <t>16 ders</t>
+  </si>
+  <si>
+    <t>19 ders</t>
+  </si>
+  <si>
+    <t>21 ders</t>
+  </si>
+  <si>
     <t>20 ders</t>
   </si>
   <si>
-    <t>19 ders</t>
-  </si>
-  <si>
-    <t>21 ders</t>
-  </si>
-  <si>
-    <t>16 ders</t>
-  </si>
-  <si>
     <t>13 ders</t>
   </si>
   <si>
     <t>24 ders</t>
   </si>
   <si>
+    <t>26 ders</t>
+  </si>
+  <si>
     <t>29 ders</t>
   </si>
   <si>
-    <t>26 ders</t>
-  </si>
-  <si>
     <t>115 ders</t>
   </si>
   <si>
@@ -2080,37 +2080,37 @@
     <t>17 ders</t>
   </si>
   <si>
+    <t>50 ders</t>
+  </si>
+  <si>
     <t>77 ders</t>
   </si>
   <si>
-    <t>50 ders</t>
-  </si>
-  <si>
     <t>12 ders</t>
   </si>
   <si>
+    <t>37 ders</t>
+  </si>
+  <si>
+    <t>3 ders</t>
+  </si>
+  <si>
     <t>35 ders</t>
   </si>
   <si>
-    <t>37 ders</t>
+    <t>34 ders</t>
+  </si>
+  <si>
+    <t>9 ders</t>
+  </si>
+  <si>
+    <t>14 ders</t>
+  </si>
+  <si>
+    <t>33 ders</t>
   </si>
   <si>
     <t>27 ders</t>
-  </si>
-  <si>
-    <t>3 ders</t>
-  </si>
-  <si>
-    <t>33 ders</t>
-  </si>
-  <si>
-    <t>9 ders</t>
-  </si>
-  <si>
-    <t>34 ders</t>
-  </si>
-  <si>
-    <t>14 ders</t>
   </si>
   <si>
     <t>44 ders</t>
@@ -2717,13 +2717,13 @@
         <v>627</v>
       </c>
       <c r="G7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H7" t="s">
         <v>669</v>
       </c>
       <c r="I7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2746,7 +2746,7 @@
         <v>627</v>
       </c>
       <c r="G8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H8" t="s">
         <v>670</v>
@@ -2795,7 +2795,7 @@
         <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E10" t="s">
         <v>614</v>
@@ -2804,13 +2804,13 @@
         <v>627</v>
       </c>
       <c r="G10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H10" t="s">
         <v>672</v>
       </c>
       <c r="I10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2824,13 +2824,13 @@
         <v>328</v>
       </c>
       <c r="D11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G11" t="s">
         <v>643</v>
@@ -2839,7 +2839,7 @@
         <v>673</v>
       </c>
       <c r="I11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2853,7 +2853,7 @@
         <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E12" t="s">
         <v>614</v>
@@ -2862,13 +2862,13 @@
         <v>627</v>
       </c>
       <c r="G12" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H12" t="s">
         <v>674</v>
       </c>
       <c r="I12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2882,7 +2882,7 @@
         <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E13" t="s">
         <v>615</v>
@@ -2891,13 +2891,13 @@
         <v>628</v>
       </c>
       <c r="G13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H13" t="s">
         <v>675</v>
       </c>
       <c r="I13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2911,7 +2911,7 @@
         <v>331</v>
       </c>
       <c r="D14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E14" t="s">
         <v>615</v>
@@ -2940,7 +2940,7 @@
         <v>332</v>
       </c>
       <c r="D15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E15" t="s">
         <v>615</v>
@@ -2949,10 +2949,10 @@
         <v>628</v>
       </c>
       <c r="G15" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H15" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I15" t="s">
         <v>708</v>
@@ -2969,7 +2969,7 @@
         <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E16" t="s">
         <v>615</v>
@@ -2981,7 +2981,7 @@
         <v>639</v>
       </c>
       <c r="H16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I16" t="s">
         <v>707</v>
@@ -2998,7 +2998,7 @@
         <v>334</v>
       </c>
       <c r="D17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E17" t="s">
         <v>615</v>
@@ -3007,13 +3007,13 @@
         <v>628</v>
       </c>
       <c r="G17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3027,7 +3027,7 @@
         <v>335</v>
       </c>
       <c r="D18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E18" t="s">
         <v>615</v>
@@ -3036,13 +3036,13 @@
         <v>628</v>
       </c>
       <c r="G18" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I18" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3056,7 +3056,7 @@
         <v>336</v>
       </c>
       <c r="D19" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="E19" t="s">
         <v>615</v>
@@ -3065,10 +3065,10 @@
         <v>628</v>
       </c>
       <c r="G19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H19" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="I19" t="s">
         <v>707</v>
@@ -3097,7 +3097,7 @@
         <v>640</v>
       </c>
       <c r="H20" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I20" t="s">
         <v>709</v>
@@ -3126,10 +3126,10 @@
         <v>639</v>
       </c>
       <c r="H21" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="I21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3155,7 +3155,7 @@
         <v>645</v>
       </c>
       <c r="H22" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="I22" t="s">
         <v>707</v>
@@ -3184,7 +3184,7 @@
         <v>646</v>
       </c>
       <c r="H23" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="I23" t="s">
         <v>707</v>
@@ -3210,7 +3210,7 @@
         <v>629</v>
       </c>
       <c r="G24" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H24" t="s">
         <v>682</v>
@@ -3239,13 +3239,13 @@
         <v>629</v>
       </c>
       <c r="G25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H25" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="I25" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3268,10 +3268,10 @@
         <v>629</v>
       </c>
       <c r="G26" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H26" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I26" t="s">
         <v>708</v>
@@ -3288,7 +3288,7 @@
         <v>344</v>
       </c>
       <c r="D27" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="E27" t="s">
         <v>616</v>
@@ -3300,10 +3300,10 @@
         <v>639</v>
       </c>
       <c r="H27" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="I27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3317,7 +3317,7 @@
         <v>345</v>
       </c>
       <c r="D28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E28" t="s">
         <v>616</v>
@@ -3326,13 +3326,13 @@
         <v>629</v>
       </c>
       <c r="G28" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H28" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="I28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3346,7 +3346,7 @@
         <v>346</v>
       </c>
       <c r="D29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E29" t="s">
         <v>616</v>
@@ -3358,7 +3358,7 @@
         <v>640</v>
       </c>
       <c r="H29" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="I29" t="s">
         <v>707</v>
@@ -3375,7 +3375,7 @@
         <v>347</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E30" t="s">
         <v>616</v>
@@ -3384,10 +3384,10 @@
         <v>629</v>
       </c>
       <c r="G30" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="H30" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="I30" t="s">
         <v>708</v>
@@ -3404,7 +3404,7 @@
         <v>348</v>
       </c>
       <c r="D31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E31" t="s">
         <v>616</v>
@@ -3413,7 +3413,7 @@
         <v>629</v>
       </c>
       <c r="G31" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H31" t="s">
         <v>686</v>
@@ -3433,7 +3433,7 @@
         <v>349</v>
       </c>
       <c r="D32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E32" t="s">
         <v>616</v>
@@ -3442,13 +3442,13 @@
         <v>629</v>
       </c>
       <c r="G32" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H32" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="I32" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3462,7 +3462,7 @@
         <v>350</v>
       </c>
       <c r="D33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E33" t="s">
         <v>616</v>
@@ -3471,10 +3471,10 @@
         <v>629</v>
       </c>
       <c r="G33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H33" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="I33" t="s">
         <v>707</v>
@@ -3491,7 +3491,7 @@
         <v>351</v>
       </c>
       <c r="D34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E34" t="s">
         <v>616</v>
@@ -3500,13 +3500,13 @@
         <v>629</v>
       </c>
       <c r="G34" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="H34" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3520,7 +3520,7 @@
         <v>352</v>
       </c>
       <c r="D35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E35" t="s">
         <v>616</v>
@@ -3529,10 +3529,10 @@
         <v>629</v>
       </c>
       <c r="G35" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H35" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="I35" t="s">
         <v>708</v>
@@ -3549,7 +3549,7 @@
         <v>353</v>
       </c>
       <c r="D36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E36" t="s">
         <v>616</v>
@@ -3558,13 +3558,13 @@
         <v>629</v>
       </c>
       <c r="G36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H36" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I36" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3578,7 +3578,7 @@
         <v>354</v>
       </c>
       <c r="D37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E37" t="s">
         <v>616</v>
@@ -3587,13 +3587,13 @@
         <v>629</v>
       </c>
       <c r="G37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H37" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I37" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3607,7 +3607,7 @@
         <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E38" t="s">
         <v>616</v>
@@ -3616,10 +3616,10 @@
         <v>629</v>
       </c>
       <c r="G38" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H38" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="I38" t="s">
         <v>708</v>
@@ -3636,7 +3636,7 @@
         <v>356</v>
       </c>
       <c r="D39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E39" t="s">
         <v>616</v>
@@ -3645,7 +3645,7 @@
         <v>629</v>
       </c>
       <c r="G39" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H39" t="s">
         <v>666</v>
@@ -3665,7 +3665,7 @@
         <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E40" t="s">
         <v>616</v>
@@ -3674,13 +3674,13 @@
         <v>629</v>
       </c>
       <c r="G40" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H40" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3694,7 +3694,7 @@
         <v>358</v>
       </c>
       <c r="D41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E41" t="s">
         <v>616</v>
@@ -3703,10 +3703,10 @@
         <v>629</v>
       </c>
       <c r="G41" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H41" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="I41" t="s">
         <v>707</v>
@@ -3723,7 +3723,7 @@
         <v>359</v>
       </c>
       <c r="D42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E42" t="s">
         <v>616</v>
@@ -3735,7 +3735,7 @@
         <v>650</v>
       </c>
       <c r="H42" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I42" t="s">
         <v>707</v>
@@ -3752,7 +3752,7 @@
         <v>360</v>
       </c>
       <c r="D43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E43" t="s">
         <v>616</v>
@@ -3761,10 +3761,10 @@
         <v>629</v>
       </c>
       <c r="G43" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H43" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="I43" t="s">
         <v>707</v>
@@ -3781,19 +3781,19 @@
         <v>361</v>
       </c>
       <c r="D44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F44" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G44" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H44" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I44" t="s">
         <v>707</v>
@@ -3810,22 +3810,22 @@
         <v>362</v>
       </c>
       <c r="D45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G45" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H45" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="I45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3839,19 +3839,19 @@
         <v>363</v>
       </c>
       <c r="D46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G46" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H46" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="I46" t="s">
         <v>707</v>
@@ -3868,19 +3868,19 @@
         <v>364</v>
       </c>
       <c r="D47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F47" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G47" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="H47" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="I47" t="s">
         <v>708</v>
@@ -3897,22 +3897,22 @@
         <v>365</v>
       </c>
       <c r="D48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G48" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I48" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3926,7 +3926,7 @@
         <v>366</v>
       </c>
       <c r="D49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E49" t="s">
         <v>617</v>
@@ -3935,13 +3935,13 @@
         <v>630</v>
       </c>
       <c r="G49" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H49" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="I49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3955,7 +3955,7 @@
         <v>367</v>
       </c>
       <c r="D50" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E50" t="s">
         <v>617</v>
@@ -3964,10 +3964,10 @@
         <v>630</v>
       </c>
       <c r="G50" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H50" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="I50" t="s">
         <v>708</v>
@@ -3984,7 +3984,7 @@
         <v>368</v>
       </c>
       <c r="D51" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E51" t="s">
         <v>617</v>
@@ -3993,13 +3993,13 @@
         <v>630</v>
       </c>
       <c r="G51" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H51" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="I51" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4013,7 +4013,7 @@
         <v>369</v>
       </c>
       <c r="D52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E52" t="s">
         <v>617</v>
@@ -4042,7 +4042,7 @@
         <v>370</v>
       </c>
       <c r="D53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E53" t="s">
         <v>617</v>
@@ -4051,13 +4051,13 @@
         <v>630</v>
       </c>
       <c r="G53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H53" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="I53" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4071,7 +4071,7 @@
         <v>371</v>
       </c>
       <c r="D54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E54" t="s">
         <v>617</v>
@@ -4080,13 +4080,13 @@
         <v>630</v>
       </c>
       <c r="G54" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I54" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4100,7 +4100,7 @@
         <v>372</v>
       </c>
       <c r="D55" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E55" t="s">
         <v>617</v>
@@ -4109,10 +4109,10 @@
         <v>630</v>
       </c>
       <c r="G55" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H55" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I55" t="s">
         <v>707</v>
@@ -4129,7 +4129,7 @@
         <v>373</v>
       </c>
       <c r="D56" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="E56" t="s">
         <v>617</v>
@@ -4138,10 +4138,10 @@
         <v>630</v>
       </c>
       <c r="G56" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H56" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="I56" t="s">
         <v>707</v>
@@ -4158,7 +4158,7 @@
         <v>374</v>
       </c>
       <c r="D57" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="E57" t="s">
         <v>617</v>
@@ -4170,10 +4170,10 @@
         <v>639</v>
       </c>
       <c r="H57" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="I57" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4187,19 +4187,19 @@
         <v>375</v>
       </c>
       <c r="D58" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E58" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F58" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G58" t="s">
         <v>640</v>
       </c>
       <c r="H58" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="I58" t="s">
         <v>708</v>
@@ -4216,7 +4216,7 @@
         <v>376</v>
       </c>
       <c r="D59" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="E59" t="s">
         <v>617</v>
@@ -4225,10 +4225,10 @@
         <v>630</v>
       </c>
       <c r="G59" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H59" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="I59" t="s">
         <v>708</v>
@@ -4248,19 +4248,19 @@
         <v>529</v>
       </c>
       <c r="E60" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F60" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G60" t="s">
         <v>640</v>
       </c>
       <c r="H60" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="I60" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4286,7 +4286,7 @@
         <v>654</v>
       </c>
       <c r="H61" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="I61" t="s">
         <v>708</v>
@@ -4303,7 +4303,7 @@
         <v>379</v>
       </c>
       <c r="D62" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="E62" t="s">
         <v>617</v>
@@ -4312,13 +4312,13 @@
         <v>630</v>
       </c>
       <c r="G62" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H62" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="I62" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4332,7 +4332,7 @@
         <v>380</v>
       </c>
       <c r="D63" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E63" t="s">
         <v>617</v>
@@ -4344,7 +4344,7 @@
         <v>639</v>
       </c>
       <c r="H63" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="I63" t="s">
         <v>707</v>
@@ -4361,7 +4361,7 @@
         <v>381</v>
       </c>
       <c r="D64" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E64" t="s">
         <v>617</v>
@@ -4370,13 +4370,13 @@
         <v>630</v>
       </c>
       <c r="G64" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="H64" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="I64" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4390,7 +4390,7 @@
         <v>382</v>
       </c>
       <c r="D65" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E65" t="s">
         <v>617</v>
@@ -4399,13 +4399,13 @@
         <v>630</v>
       </c>
       <c r="G65" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H65" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="I65" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4419,7 +4419,7 @@
         <v>383</v>
       </c>
       <c r="D66" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="E66" t="s">
         <v>617</v>
@@ -4434,7 +4434,7 @@
         <v>698</v>
       </c>
       <c r="I66" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4457,13 +4457,13 @@
         <v>630</v>
       </c>
       <c r="G67" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="H67" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="I67" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4486,10 +4486,10 @@
         <v>630</v>
       </c>
       <c r="G68" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H68" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="I68" t="s">
         <v>707</v>
@@ -4506,7 +4506,7 @@
         <v>386</v>
       </c>
       <c r="D69" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="E69" t="s">
         <v>617</v>
@@ -4515,13 +4515,13 @@
         <v>630</v>
       </c>
       <c r="G69" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H69" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="I69" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4535,7 +4535,7 @@
         <v>387</v>
       </c>
       <c r="D70" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E70" t="s">
         <v>617</v>
@@ -4544,13 +4544,13 @@
         <v>630</v>
       </c>
       <c r="G70" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H70" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="I70" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4564,7 +4564,7 @@
         <v>388</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E71" t="s">
         <v>617</v>
@@ -4573,13 +4573,13 @@
         <v>630</v>
       </c>
       <c r="G71" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H71" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="I71" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4593,7 +4593,7 @@
         <v>389</v>
       </c>
       <c r="D72" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E72" t="s">
         <v>617</v>
@@ -4602,10 +4602,10 @@
         <v>630</v>
       </c>
       <c r="G72" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H72" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="I72" t="s">
         <v>708</v>
@@ -4622,7 +4622,7 @@
         <v>390</v>
       </c>
       <c r="D73" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E73" t="s">
         <v>617</v>
@@ -4631,13 +4631,13 @@
         <v>630</v>
       </c>
       <c r="G73" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="H73" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="I73" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4651,7 +4651,7 @@
         <v>391</v>
       </c>
       <c r="D74" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E74" t="s">
         <v>617</v>
@@ -4660,13 +4660,13 @@
         <v>630</v>
       </c>
       <c r="G74" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H74" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="I74" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4680,7 +4680,7 @@
         <v>392</v>
       </c>
       <c r="D75" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E75" t="s">
         <v>617</v>
@@ -4689,10 +4689,10 @@
         <v>630</v>
       </c>
       <c r="G75" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H75" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="I75" t="s">
         <v>708</v>
@@ -4709,7 +4709,7 @@
         <v>393</v>
       </c>
       <c r="D76" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E76" t="s">
         <v>617</v>
@@ -4718,13 +4718,13 @@
         <v>630</v>
       </c>
       <c r="G76" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="H76" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I76" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4738,7 +4738,7 @@
         <v>394</v>
       </c>
       <c r="D77" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E77" t="s">
         <v>617</v>
@@ -4747,13 +4747,13 @@
         <v>630</v>
       </c>
       <c r="G77" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H77" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="I77" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4767,7 +4767,7 @@
         <v>395</v>
       </c>
       <c r="D78" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E78" t="s">
         <v>617</v>
@@ -4776,13 +4776,13 @@
         <v>630</v>
       </c>
       <c r="G78" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="H78" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="I78" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4796,7 +4796,7 @@
         <v>396</v>
       </c>
       <c r="D79" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E79" t="s">
         <v>617</v>
@@ -4805,13 +4805,13 @@
         <v>630</v>
       </c>
       <c r="G79" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H79" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="I79" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4825,7 +4825,7 @@
         <v>397</v>
       </c>
       <c r="D80" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="E80" t="s">
         <v>617</v>
@@ -4837,10 +4837,10 @@
         <v>639</v>
       </c>
       <c r="H80" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="I80" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4863,10 +4863,10 @@
         <v>630</v>
       </c>
       <c r="G81" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H81" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I81" t="s">
         <v>707</v>
@@ -4892,10 +4892,10 @@
         <v>631</v>
       </c>
       <c r="G82" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H82" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="I82" t="s">
         <v>708</v>
@@ -4921,10 +4921,10 @@
         <v>631</v>
       </c>
       <c r="G83" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H83" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I83" t="s">
         <v>708</v>
@@ -4950,10 +4950,10 @@
         <v>631</v>
       </c>
       <c r="G84" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H84" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="I84" t="s">
         <v>708</v>
@@ -5002,16 +5002,16 @@
         <v>552</v>
       </c>
       <c r="E86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G86" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H86" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="I86" t="s">
         <v>707</v>
@@ -5037,10 +5037,10 @@
         <v>631</v>
       </c>
       <c r="G87" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="H87" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="I87" t="s">
         <v>707</v>
@@ -5066,10 +5066,10 @@
         <v>631</v>
       </c>
       <c r="G88" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H88" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="I88" t="s">
         <v>708</v>
@@ -5086,7 +5086,7 @@
         <v>406</v>
       </c>
       <c r="D89" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="E89" t="s">
         <v>618</v>
@@ -5095,10 +5095,10 @@
         <v>631</v>
       </c>
       <c r="G89" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="H89" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="I89" t="s">
         <v>708</v>
@@ -5115,7 +5115,7 @@
         <v>407</v>
       </c>
       <c r="D90" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E90" t="s">
         <v>618</v>
@@ -5124,10 +5124,10 @@
         <v>631</v>
       </c>
       <c r="G90" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H90" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="I90" t="s">
         <v>708</v>
@@ -5144,7 +5144,7 @@
         <v>408</v>
       </c>
       <c r="D91" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="E91" t="s">
         <v>618</v>
@@ -5153,10 +5153,10 @@
         <v>631</v>
       </c>
       <c r="G91" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="H91" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="I91" t="s">
         <v>708</v>
@@ -5173,7 +5173,7 @@
         <v>409</v>
       </c>
       <c r="D92" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E92" t="s">
         <v>618</v>
@@ -5202,7 +5202,7 @@
         <v>410</v>
       </c>
       <c r="D93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E93" t="s">
         <v>618</v>
@@ -5211,13 +5211,13 @@
         <v>631</v>
       </c>
       <c r="G93" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="H93" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="I93" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5231,7 +5231,7 @@
         <v>411</v>
       </c>
       <c r="D94" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E94" t="s">
         <v>618</v>
@@ -5240,13 +5240,13 @@
         <v>631</v>
       </c>
       <c r="G94" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H94" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I94" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5260,7 +5260,7 @@
         <v>412</v>
       </c>
       <c r="D95" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E95" t="s">
         <v>618</v>
@@ -5269,10 +5269,10 @@
         <v>631</v>
       </c>
       <c r="G95" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H95" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="I95" t="s">
         <v>708</v>
@@ -5289,7 +5289,7 @@
         <v>413</v>
       </c>
       <c r="D96" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E96" t="s">
         <v>618</v>
@@ -5318,7 +5318,7 @@
         <v>414</v>
       </c>
       <c r="D97" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E97" t="s">
         <v>618</v>
@@ -5330,7 +5330,7 @@
         <v>640</v>
       </c>
       <c r="H97" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="I97" t="s">
         <v>708</v>
@@ -5356,13 +5356,13 @@
         <v>631</v>
       </c>
       <c r="G98" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H98" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="I98" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5385,13 +5385,13 @@
         <v>631</v>
       </c>
       <c r="G99" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H99" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I99" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5414,10 +5414,10 @@
         <v>631</v>
       </c>
       <c r="G100" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="H100" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="I100" t="s">
         <v>707</v>
@@ -5443,10 +5443,10 @@
         <v>631</v>
       </c>
       <c r="G101" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H101" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="I101" t="s">
         <v>707</v>
@@ -5472,10 +5472,10 @@
         <v>631</v>
       </c>
       <c r="G102" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="H102" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="I102" t="s">
         <v>708</v>
@@ -5501,13 +5501,13 @@
         <v>631</v>
       </c>
       <c r="G103" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H103" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I103" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5524,16 +5524,16 @@
         <v>567</v>
       </c>
       <c r="E104" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F104" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G104" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H104" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="I104" t="s">
         <v>707</v>
@@ -5553,19 +5553,19 @@
         <v>568</v>
       </c>
       <c r="E105" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F105" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G105" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H105" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="I105" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5588,13 +5588,13 @@
         <v>632</v>
       </c>
       <c r="G106" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H106" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I106" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5617,7 +5617,7 @@
         <v>632</v>
       </c>
       <c r="G107" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H107" t="s">
         <v>701</v>
@@ -5646,10 +5646,10 @@
         <v>632</v>
       </c>
       <c r="G108" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H108" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="I108" t="s">
         <v>708</v>
@@ -5675,10 +5675,10 @@
         <v>632</v>
       </c>
       <c r="G109" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H109" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="I109" t="s">
         <v>708</v>
@@ -5704,13 +5704,13 @@
         <v>632</v>
       </c>
       <c r="G110" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H110" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="I110" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5733,13 +5733,13 @@
         <v>632</v>
       </c>
       <c r="G111" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="H111" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="I111" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5794,7 +5794,7 @@
         <v>639</v>
       </c>
       <c r="H113" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="I113" t="s">
         <v>708</v>
@@ -5823,7 +5823,7 @@
         <v>640</v>
       </c>
       <c r="H114" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I114" t="s">
         <v>708</v>
@@ -5840,7 +5840,7 @@
         <v>432</v>
       </c>
       <c r="D115" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="E115" t="s">
         <v>619</v>
@@ -5849,10 +5849,10 @@
         <v>632</v>
       </c>
       <c r="G115" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H115" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="I115" t="s">
         <v>708</v>
@@ -5869,7 +5869,7 @@
         <v>433</v>
       </c>
       <c r="D116" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E116" t="s">
         <v>619</v>
@@ -5878,13 +5878,13 @@
         <v>632</v>
       </c>
       <c r="G116" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H116" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="I116" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5898,7 +5898,7 @@
         <v>434</v>
       </c>
       <c r="D117" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="E117" t="s">
         <v>619</v>
@@ -5907,13 +5907,13 @@
         <v>632</v>
       </c>
       <c r="G117" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H117" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="I117" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5927,7 +5927,7 @@
         <v>435</v>
       </c>
       <c r="D118" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E118" t="s">
         <v>619</v>
@@ -5936,7 +5936,7 @@
         <v>632</v>
       </c>
       <c r="G118" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H118" t="s">
         <v>687</v>
@@ -5956,7 +5956,7 @@
         <v>436</v>
       </c>
       <c r="D119" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E119" t="s">
         <v>619</v>
@@ -5965,13 +5965,13 @@
         <v>632</v>
       </c>
       <c r="G119" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="H119" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="I119" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5985,19 +5985,19 @@
         <v>437</v>
       </c>
       <c r="D120" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E120" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F120" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G120" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H120" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="I120" t="s">
         <v>708</v>
@@ -6014,7 +6014,7 @@
         <v>438</v>
       </c>
       <c r="D121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E121" t="s">
         <v>620</v>
@@ -6023,10 +6023,10 @@
         <v>633</v>
       </c>
       <c r="G121" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H121" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="I121" t="s">
         <v>708</v>
@@ -6043,7 +6043,7 @@
         <v>439</v>
       </c>
       <c r="D122" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E122" t="s">
         <v>620</v>
@@ -6055,7 +6055,7 @@
         <v>639</v>
       </c>
       <c r="H122" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="I122" t="s">
         <v>708</v>
@@ -6072,7 +6072,7 @@
         <v>440</v>
       </c>
       <c r="D123" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E123" t="s">
         <v>620</v>
@@ -6081,10 +6081,10 @@
         <v>633</v>
       </c>
       <c r="G123" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H123" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="I123" t="s">
         <v>708</v>
@@ -6101,7 +6101,7 @@
         <v>441</v>
       </c>
       <c r="D124" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E124" t="s">
         <v>620</v>
@@ -6110,13 +6110,13 @@
         <v>633</v>
       </c>
       <c r="G124" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="H124" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="I124" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6130,7 +6130,7 @@
         <v>442</v>
       </c>
       <c r="D125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E125" t="s">
         <v>620</v>
@@ -6139,13 +6139,13 @@
         <v>633</v>
       </c>
       <c r="G125" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="H125" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="I125" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6159,7 +6159,7 @@
         <v>443</v>
       </c>
       <c r="D126" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E126" t="s">
         <v>620</v>
@@ -6168,13 +6168,13 @@
         <v>633</v>
       </c>
       <c r="G126" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H126" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I126" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6188,7 +6188,7 @@
         <v>444</v>
       </c>
       <c r="D127" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E127" t="s">
         <v>620</v>
@@ -6197,10 +6197,10 @@
         <v>633</v>
       </c>
       <c r="G127" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H127" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="I127" t="s">
         <v>708</v>
@@ -6217,7 +6217,7 @@
         <v>445</v>
       </c>
       <c r="D128" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="E128" t="s">
         <v>620</v>
@@ -6226,13 +6226,13 @@
         <v>633</v>
       </c>
       <c r="G128" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H128" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="I128" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6258,7 +6258,7 @@
         <v>657</v>
       </c>
       <c r="H129" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I129" t="s">
         <v>708</v>
@@ -6284,13 +6284,13 @@
         <v>633</v>
       </c>
       <c r="G130" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H130" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="I130" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6313,13 +6313,13 @@
         <v>633</v>
       </c>
       <c r="G131" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H131" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="I131" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6336,19 +6336,19 @@
         <v>593</v>
       </c>
       <c r="E132" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F132" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G132" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H132" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="I132" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6371,10 +6371,10 @@
         <v>634</v>
       </c>
       <c r="G133" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H133" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I133" t="s">
         <v>708</v>
@@ -6400,13 +6400,13 @@
         <v>634</v>
       </c>
       <c r="G134" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="H134" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="I134" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6429,10 +6429,10 @@
         <v>634</v>
       </c>
       <c r="G135" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H135" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="I135" t="s">
         <v>707</v>
@@ -6461,7 +6461,7 @@
         <v>640</v>
       </c>
       <c r="H136" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I136" t="s">
         <v>707</v>
@@ -6487,13 +6487,13 @@
         <v>634</v>
       </c>
       <c r="G137" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="H137" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I137" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6519,7 +6519,7 @@
         <v>639</v>
       </c>
       <c r="H138" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I138" t="s">
         <v>707</v>
@@ -6574,13 +6574,13 @@
         <v>634</v>
       </c>
       <c r="G140" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="H140" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="I140" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6603,13 +6603,13 @@
         <v>634</v>
       </c>
       <c r="G141" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="H141" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="I141" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6623,7 +6623,7 @@
         <v>459</v>
       </c>
       <c r="D142" t="s">
-        <v>603</v>
+        <v>518</v>
       </c>
       <c r="E142" t="s">
         <v>621</v>
@@ -6632,10 +6632,10 @@
         <v>634</v>
       </c>
       <c r="G142" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H142" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I142" t="s">
         <v>707</v>
@@ -6652,19 +6652,19 @@
         <v>460</v>
       </c>
       <c r="D143" t="s">
-        <v>513</v>
+        <v>603</v>
       </c>
       <c r="E143" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F143" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G143" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H143" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="I143" t="s">
         <v>707</v>
@@ -6693,7 +6693,7 @@
         <v>640</v>
       </c>
       <c r="H144" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I144" t="s">
         <v>707</v>
@@ -6719,10 +6719,10 @@
         <v>635</v>
       </c>
       <c r="G145" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H145" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I145" t="s">
         <v>707</v>
@@ -6748,13 +6748,13 @@
         <v>635</v>
       </c>
       <c r="G146" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H146" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="I146" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6777,13 +6777,13 @@
         <v>635</v>
       </c>
       <c r="G147" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H147" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="I147" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6809,10 +6809,10 @@
         <v>640</v>
       </c>
       <c r="H148" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="I148" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6829,10 +6829,10 @@
         <v>609</v>
       </c>
       <c r="E149" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F149" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G149" t="s">
         <v>640</v>
@@ -6855,7 +6855,7 @@
         <v>467</v>
       </c>
       <c r="D150" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="E150" t="s">
         <v>623</v>
@@ -6864,10 +6864,10 @@
         <v>636</v>
       </c>
       <c r="G150" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H150" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="I150" t="s">
         <v>708</v>
@@ -6884,7 +6884,7 @@
         <v>468</v>
       </c>
       <c r="D151" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="E151" t="s">
         <v>624</v>
@@ -6896,10 +6896,10 @@
         <v>639</v>
       </c>
       <c r="H151" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I151" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6913,22 +6913,22 @@
         <v>469</v>
       </c>
       <c r="D152" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="E152" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F152" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G152" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H152" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I152" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6942,7 +6942,7 @@
         <v>470</v>
       </c>
       <c r="D153" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="E153" t="s">
         <v>625</v>
@@ -6951,7 +6951,7 @@
         <v>638</v>
       </c>
       <c r="G153" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H153" t="s">
         <v>681</v>
@@ -6971,7 +6971,7 @@
         <v>471</v>
       </c>
       <c r="D154" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="E154" t="s">
         <v>625</v>
@@ -6980,13 +6980,13 @@
         <v>638</v>
       </c>
       <c r="G154" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H154" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="I154" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7000,7 +7000,7 @@
         <v>472</v>
       </c>
       <c r="D155" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="E155" t="s">
         <v>625</v>
@@ -7012,10 +7012,10 @@
         <v>639</v>
       </c>
       <c r="H155" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I155" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7038,10 +7038,10 @@
         <v>638</v>
       </c>
       <c r="G156" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H156" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="I156" t="s">
         <v>707</v>
